--- a/02_intermediate/03_hilliness_calculations/EngWales_mmetspeed_hilliness.xlsx
+++ b/02_intermediate/03_hilliness_calculations/EngWales_mmetspeed_hilliness.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna Goodman\Dropbox\PCT\2_WorkInProgress\Rachel\user manual\Manual_Version1.4_july2019\English\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna Goodman\Dropbox\GitHub\pct-inputs\02_intermediate\03_hilliness_calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9347E2C-5034-44FD-9014-C4468F3DD8D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EB6C36-6627-4130-8C11-BDB1F017468E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="0" windowWidth="14595" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hilliness_detailedCalc" sheetId="4" r:id="rId1"/>
@@ -1005,7 +1005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1291,6 +1291,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1307,15 +1313,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4242,37 +4239,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="121" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
       <c r="K1" s="120"/>
-      <c r="L1" s="124" t="s">
+      <c r="L1" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="122" t="s">
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
       <c r="X1" s="38"/>
       <c r="Y1" s="116" t="s">
         <v>184</v>
@@ -4301,17 +4298,17 @@
       <c r="N2" s="65"/>
       <c r="O2" s="65"/>
       <c r="P2" s="65"/>
-      <c r="Q2" s="125" t="s">
+      <c r="Q2" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="126" t="s">
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
       <c r="X2" s="38"/>
       <c r="Y2" s="38"/>
       <c r="Z2" s="38"/>
@@ -4509,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="84">
-        <f>(V$4+V4)/2</f>
+        <f t="shared" ref="X4:X32" si="5">(V$4+V4)/2</f>
         <v>4.3886426707028869</v>
       </c>
       <c r="Y4" s="84">
@@ -4521,7 +4518,7 @@
         <v>2.5886426707028871</v>
       </c>
       <c r="AA4" s="118">
-        <f>(J$4+J4)/2</f>
+        <f t="shared" ref="AA4:AA15" si="6">(J$4+J4)/2</f>
         <v>16</v>
       </c>
       <c r="AB4" s="119">
@@ -4545,29 +4542,29 @@
     </row>
     <row r="5" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="83">
-        <f t="shared" ref="A5:A32" si="5">DEGREES(SINH(B5/100))</f>
+        <f t="shared" ref="A5:A32" si="7">DEGREES(SINH(B5/100))</f>
         <v>0.14323959799051156</v>
       </c>
       <c r="B5" s="83">
         <v>0.25</v>
       </c>
       <c r="C5" s="83">
-        <f t="shared" ref="C5:C32" si="6">D5/B5*100</f>
+        <f t="shared" ref="C5:C32" si="8">D5/B5*100</f>
         <v>400</v>
       </c>
       <c r="D5" s="83">
         <v>1</v>
       </c>
       <c r="E5" s="27">
-        <f t="shared" ref="E5:E32" si="7">(-4.3*SQRT(B5))+20</f>
+        <f t="shared" ref="E5:E32" si="9">(-4.3*SQRT(B5))+20</f>
         <v>17.850000000000001</v>
       </c>
       <c r="F5" s="28">
-        <f t="shared" ref="F5:F8" si="8">E5/3600*1000</f>
+        <f t="shared" ref="F5:F8" si="10">E5/3600*1000</f>
         <v>4.9583333333333339</v>
       </c>
       <c r="G5" s="28">
-        <f t="shared" ref="G5:G8" si="9">F5</f>
+        <f t="shared" ref="G5:G8" si="11">F5</f>
         <v>4.9583333333333339</v>
       </c>
       <c r="H5" s="27">
@@ -4575,19 +4572,19 @@
         <v>5.95</v>
       </c>
       <c r="I5" s="28">
-        <f t="shared" ref="I5:I8" si="10">$B$54*((100-$B$52)/100)/60*E5</f>
+        <f t="shared" ref="I5:I8" si="12">$B$54*((100-$B$52)/100)/60*E5</f>
         <v>4.7600000000000007</v>
       </c>
       <c r="J5" s="27">
-        <f t="shared" ref="J5:J8" si="11">I5*60/$B$54</f>
+        <f t="shared" ref="J5:J8" si="13">I5*60/$B$54</f>
         <v>14.280000000000001</v>
       </c>
       <c r="K5" s="28">
-        <f t="shared" ref="K5:K32" si="12">1+(((AA5/AA$7)-1)/2)</f>
+        <f t="shared" ref="K5:K32" si="14">1+(((AA5/AA$7)-1)/2)</f>
         <v>1.021693479136496</v>
       </c>
       <c r="L5" s="32">
-        <f t="shared" ref="L5:L8" si="13">($B$45*($B$46+$B$47)*F5)</f>
+        <f t="shared" ref="L5:L8" si="15">($B$45*($B$46+$B$47)*F5)</f>
         <v>3.2244041666666674</v>
       </c>
       <c r="M5" s="12">
@@ -4599,7 +4596,7 @@
         <v>11.285414583333335</v>
       </c>
       <c r="O5" s="13">
-        <f t="shared" ref="O5:O8" si="14">L5+ M5+N5</f>
+        <f t="shared" ref="O5:O8" si="16">L5+ M5+N5</f>
         <v>66.774859349681748</v>
       </c>
       <c r="P5" s="13">
@@ -4611,51 +4608,51 @@
         <v>1.2542485432041599</v>
       </c>
       <c r="R5" s="26">
-        <f t="shared" ref="R5:R8" si="15">Q5*5</f>
+        <f t="shared" ref="R5:R8" si="17">Q5*5</f>
         <v>6.2712427160207991</v>
       </c>
       <c r="S5" s="26">
-        <f t="shared" ref="S5:S8" si="16">R5*60/($B$46*((100-$B$52)/100))</f>
+        <f t="shared" ref="S5:S8" si="18">R5*60/($B$46*((100-$B$52)/100))</f>
         <v>6.1162965370814026</v>
       </c>
       <c r="T5" s="26">
-        <f t="shared" ref="T5:T8" si="17">S5-1</f>
+        <f t="shared" ref="T5:T8" si="19">S5-1</f>
         <v>5.1162965370814026</v>
       </c>
       <c r="U5" s="80">
-        <f t="shared" ref="U5:U8" si="18">(S5*((100-$B$52)/100))+($B$55*($B$52/100))</f>
+        <f t="shared" ref="U5:U8" si="20">(S5*((100-$B$52)/100))+($B$55*($B$52/100))</f>
         <v>4.8930372296651221</v>
       </c>
       <c r="V5" s="80">
-        <f t="shared" ref="V5:V8" si="19">T5</f>
+        <f t="shared" ref="V5:V8" si="21">T5</f>
         <v>5.1162965370814026</v>
       </c>
       <c r="W5" s="80">
-        <f t="shared" ref="W5:W8" si="20">V5-$V$4</f>
+        <f t="shared" ref="W5:W8" si="22">V5-$V$4</f>
         <v>0.7276538663785157</v>
       </c>
       <c r="X5" s="84">
-        <f>(V$4+V5)/2</f>
+        <f t="shared" si="5"/>
         <v>4.7524696038921448</v>
       </c>
       <c r="Y5" s="84">
-        <f t="shared" ref="Y5:Y8" si="21">X5*Y$39</f>
+        <f t="shared" ref="Y5:Y8" si="23">X5*Y$39</f>
         <v>3.0083132592637276</v>
       </c>
       <c r="Z5" s="84">
-        <f t="shared" ref="Z5:Z32" si="22">X5 - 1.8</f>
+        <f t="shared" ref="Z5:Z32" si="24">X5 - 1.8</f>
         <v>2.952469603892145</v>
       </c>
       <c r="AA5" s="118">
-        <f>(J$4+J5)/2</f>
+        <f t="shared" si="6"/>
         <v>15.14</v>
       </c>
       <c r="AB5" s="119">
-        <f t="shared" ref="AB5:AB32" si="23">AA5*$AB$39</f>
+        <f t="shared" ref="AB5:AB32" si="25">AA5*$AB$39</f>
         <v>5.1908571428571433</v>
       </c>
       <c r="AC5" s="119">
-        <f t="shared" ref="AC5:AC32" si="24">K5*$AB$41</f>
+        <f t="shared" ref="AC5:AC32" si="26">K5*$AB$41</f>
         <v>17.345505238712096</v>
       </c>
       <c r="AD5" s="105"/>
@@ -4671,29 +4668,29 @@
     </row>
     <row r="6" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.28648009122897689</v>
       </c>
       <c r="B6" s="83">
         <v>0.5</v>
       </c>
       <c r="C6" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="D6" s="83">
         <v>1</v>
       </c>
       <c r="E6" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>16.959440840897845</v>
       </c>
       <c r="F6" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.7109557891382901</v>
       </c>
       <c r="G6" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.7109557891382901</v>
       </c>
       <c r="H6" s="27">
@@ -4701,19 +4698,19 @@
         <v>5.6531469469659479</v>
       </c>
       <c r="I6" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.5225175575727583</v>
       </c>
       <c r="J6" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13.567552672718275</v>
       </c>
       <c r="K6" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.009418739213408</v>
       </c>
       <c r="L6" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.0635345496766306</v>
       </c>
       <c r="M6" s="12">
@@ -4725,7 +4722,7 @@
         <v>21.444741847736413</v>
       </c>
       <c r="O6" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>69.334403546131028</v>
       </c>
       <c r="P6" s="13">
@@ -4737,51 +4734,51 @@
         <v>1.2856511230767258</v>
       </c>
       <c r="R6" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.4282556153836286</v>
       </c>
       <c r="S6" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.269430054015241</v>
       </c>
       <c r="T6" s="26">
-        <f t="shared" si="17"/>
-        <v>5.269430054015241</v>
-      </c>
-      <c r="U6" s="80">
-        <f t="shared" si="18"/>
-        <v>5.0155440432121932</v>
-      </c>
-      <c r="V6" s="80">
         <f t="shared" si="19"/>
         <v>5.269430054015241</v>
       </c>
+      <c r="U6" s="80">
+        <f t="shared" si="20"/>
+        <v>5.0155440432121932</v>
+      </c>
+      <c r="V6" s="80">
+        <f t="shared" si="21"/>
+        <v>5.269430054015241</v>
+      </c>
       <c r="W6" s="80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.88078738331235407</v>
       </c>
       <c r="X6" s="84">
-        <f>(V$4+V6)/2</f>
+        <f t="shared" si="5"/>
         <v>4.829036362359064</v>
       </c>
       <c r="Y6" s="84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.0567800173732875</v>
       </c>
       <c r="Z6" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.0290363623590641</v>
       </c>
       <c r="AA6" s="118">
-        <f>(J$4+J6)/2</f>
+        <f t="shared" si="6"/>
         <v>14.783776336359137</v>
       </c>
       <c r="AB6" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0687233153231332</v>
       </c>
       <c r="AC6" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>17.13711439548219</v>
       </c>
       <c r="AD6" s="105"/>
@@ -4797,29 +4794,29 @@
     </row>
     <row r="7" spans="1:39" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.42972237496894489</v>
       </c>
       <c r="B7" s="92">
         <v>0.75</v>
       </c>
       <c r="C7" s="92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>133.33333333333331</v>
       </c>
       <c r="D7" s="92">
         <v>1</v>
       </c>
       <c r="E7" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>16.276090763726913</v>
       </c>
       <c r="F7" s="95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.5211363232574762</v>
       </c>
       <c r="G7" s="95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.5211363232574762</v>
       </c>
       <c r="H7" s="94">
@@ -4827,19 +4824,19 @@
         <v>5.4253635879089703</v>
       </c>
       <c r="I7" s="95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.340290870327177</v>
       </c>
       <c r="J7" s="94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13.020872610981531</v>
       </c>
       <c r="K7" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L7" s="96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.9400949510143373</v>
       </c>
       <c r="M7" s="97">
@@ -4851,7 +4848,7 @@
         <v>30.870996985650542</v>
       </c>
       <c r="O7" s="98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>73.434054110941233</v>
       </c>
       <c r="P7" s="98">
@@ -4863,47 +4860,47 @@
         <v>1.335948986457892</v>
       </c>
       <c r="R7" s="99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.6797449322894593</v>
       </c>
       <c r="S7" s="99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.5147057206984318</v>
       </c>
       <c r="T7" s="99">
-        <f t="shared" si="17"/>
-        <v>5.5147057206984318</v>
-      </c>
-      <c r="U7" s="100">
-        <f t="shared" si="18"/>
-        <v>5.2117645765587461</v>
-      </c>
-      <c r="V7" s="100">
         <f t="shared" si="19"/>
         <v>5.5147057206984318</v>
       </c>
+      <c r="U7" s="100">
+        <f t="shared" si="20"/>
+        <v>5.2117645765587461</v>
+      </c>
+      <c r="V7" s="100">
+        <f t="shared" si="21"/>
+        <v>5.5147057206984318</v>
+      </c>
       <c r="W7" s="100">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.1260630499955449</v>
       </c>
       <c r="X7" s="101">
-        <f>(V$4+V7)/2</f>
+        <f t="shared" si="5"/>
         <v>4.9516741957006598</v>
       </c>
       <c r="Y7" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.1344097658785177</v>
       </c>
       <c r="Z7" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.15167419570066</v>
       </c>
       <c r="AA7" s="118">
-        <f>(J$4+J7)/2</f>
+        <f t="shared" si="6"/>
         <v>14.510436305490765</v>
       </c>
       <c r="AB7" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9750067333111199</v>
       </c>
       <c r="AC7" s="119">
@@ -4925,29 +4922,29 @@
     </row>
     <row r="8" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.57296734447515529</v>
       </c>
       <c r="B8" s="83">
         <v>1</v>
       </c>
       <c r="C8" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="D8" s="83">
         <v>1</v>
       </c>
       <c r="E8" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.7</v>
       </c>
       <c r="F8" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.3611111111111107</v>
       </c>
       <c r="G8" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.3611111111111107</v>
       </c>
       <c r="H8" s="27">
@@ -4955,19 +4952,19 @@
         <v>5.2333333333333325</v>
       </c>
       <c r="I8" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.1866666666666665</v>
       </c>
       <c r="J8" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>12.559999999999999</v>
       </c>
       <c r="K8" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.99205963553957477</v>
       </c>
       <c r="L8" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.8360305555555558</v>
       </c>
       <c r="M8" s="12">
@@ -4979,7 +4976,7 @@
         <v>39.704427777777774</v>
       </c>
       <c r="O8" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>78.103228904106629</v>
       </c>
       <c r="P8" s="13">
@@ -4991,51 +4988,51 @@
         <v>1.3932342384901684</v>
       </c>
       <c r="R8" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.966171192450842</v>
       </c>
       <c r="S8" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.7940551291783233</v>
       </c>
       <c r="T8" s="26">
-        <f t="shared" si="17"/>
-        <v>5.7940551291783233</v>
-      </c>
-      <c r="U8" s="80">
-        <f t="shared" si="18"/>
-        <v>5.4352441033426588</v>
-      </c>
-      <c r="V8" s="80">
         <f t="shared" si="19"/>
         <v>5.7940551291783233</v>
       </c>
+      <c r="U8" s="80">
+        <f t="shared" si="20"/>
+        <v>5.4352441033426588</v>
+      </c>
+      <c r="V8" s="80">
+        <f t="shared" si="21"/>
+        <v>5.7940551291783233</v>
+      </c>
       <c r="W8" s="80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.4054124584754364</v>
       </c>
       <c r="X8" s="84">
-        <f>(V$4+V8)/2</f>
+        <f t="shared" si="5"/>
         <v>5.0913488999406056</v>
       </c>
       <c r="Y8" s="84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.2228238536624034</v>
       </c>
       <c r="Z8" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.2913488999406058</v>
       </c>
       <c r="AA8" s="118">
-        <f>(J$4+J8)/2</f>
+        <f t="shared" si="6"/>
         <v>14.28</v>
       </c>
       <c r="AB8" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.8959999999999999</v>
       </c>
       <c r="AC8" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16.842405238712097</v>
       </c>
       <c r="AD8" s="105"/>
@@ -5051,117 +5048,117 @@
     </row>
     <row r="9" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.71621589502913396</v>
       </c>
       <c r="B9" s="83">
         <v>1.25</v>
       </c>
       <c r="C9" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="D9" s="83">
         <v>1</v>
       </c>
       <c r="E9" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.192453848375452</v>
       </c>
       <c r="F9" s="28">
-        <f t="shared" ref="F9:F32" si="25">E9/3600*1000</f>
+        <f t="shared" ref="F9:F32" si="27">E9/3600*1000</f>
         <v>4.2201260689931814</v>
       </c>
       <c r="G9" s="28">
-        <f t="shared" ref="G9:G32" si="26">F9</f>
+        <f t="shared" ref="G9:G32" si="28">F9</f>
         <v>4.2201260689931814</v>
       </c>
       <c r="H9" s="27">
-        <f t="shared" ref="H9:H32" si="27">$B$54/60*E9</f>
+        <f t="shared" ref="H9:H32" si="29">$B$54/60*E9</f>
         <v>5.0641512827918174</v>
       </c>
       <c r="I9" s="28">
-        <f t="shared" ref="I9:I32" si="28">$B$54*((100-$B$52)/100)/60*E9</f>
+        <f t="shared" ref="I9:I32" si="30">$B$54*((100-$B$52)/100)/60*E9</f>
         <v>4.0513210262334542</v>
       </c>
       <c r="J9" s="27">
-        <f t="shared" ref="J9:J32" si="29">I9*60/$B$54</f>
+        <f t="shared" ref="J9:J32" si="31">I9*60/$B$54</f>
         <v>12.153963078700363</v>
       </c>
       <c r="K9" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.98506403401610454</v>
       </c>
       <c r="L9" s="32">
-        <f t="shared" ref="L9:L32" si="30">($B$45*($B$46+$B$47)*F9)</f>
+        <f t="shared" ref="L9:L32" si="32">($B$45*($B$46+$B$47)*F9)</f>
         <v>2.7443479826662665</v>
       </c>
       <c r="M9" s="12">
-        <f t="shared" ref="M9:M32" si="31">$B$48*$B$49*F9*(G9^2)*$B$50</f>
+        <f t="shared" ref="M9:M32" si="33">$B$48*$B$49*F9*(G9^2)*$B$50</f>
         <v>32.224071159498358</v>
       </c>
       <c r="N9" s="12">
-        <f t="shared" ref="N9:N32" si="32">$B$51*B9/100*($B$46+$B$47)*F9</f>
+        <f t="shared" ref="N9:N32" si="34">$B$51*B9/100*($B$46+$B$47)*F9</f>
         <v>48.026089696659653</v>
       </c>
       <c r="O9" s="13">
-        <f t="shared" ref="O9:O32" si="33">L9+ M9+N9</f>
+        <f t="shared" ref="O9:O32" si="35">L9+ M9+N9</f>
         <v>82.994508838824288</v>
       </c>
       <c r="P9" s="13">
-        <f t="shared" ref="P9:P32" si="34">O9*(100/$B$53)</f>
+        <f t="shared" ref="P9:P32" si="36">O9*(100/$B$53)</f>
         <v>89.241407353574502</v>
       </c>
       <c r="Q9" s="26">
-        <f t="shared" ref="Q9:Q32" si="35">0.01141*P9 +0.435</f>
+        <f t="shared" ref="Q9:Q32" si="37">0.01141*P9 +0.435</f>
         <v>1.4532444579042851</v>
       </c>
       <c r="R9" s="26">
-        <f t="shared" ref="R9:R32" si="36">Q9*5</f>
+        <f t="shared" ref="R9:R32" si="38">Q9*5</f>
         <v>7.2662222895214255</v>
       </c>
       <c r="S9" s="26">
-        <f t="shared" ref="S9:S32" si="37">R9*60/($B$46*((100-$B$52)/100))</f>
+        <f t="shared" ref="S9:S32" si="39">R9*60/($B$46*((100-$B$52)/100))</f>
         <v>7.0866927401054207</v>
       </c>
       <c r="T9" s="26">
-        <f t="shared" ref="T9:T32" si="38">S9-1</f>
+        <f t="shared" ref="T9:T32" si="40">S9-1</f>
         <v>6.0866927401054207</v>
       </c>
       <c r="U9" s="80">
-        <f t="shared" ref="U9:U32" si="39">(S9*((100-$B$52)/100))+($B$55*($B$52/100))</f>
+        <f t="shared" ref="U9:U32" si="41">(S9*((100-$B$52)/100))+($B$55*($B$52/100))</f>
         <v>5.6693541920843371</v>
       </c>
       <c r="V9" s="80">
-        <f t="shared" ref="V9:V32" si="40">T9</f>
+        <f t="shared" ref="V9:V32" si="42">T9</f>
         <v>6.0866927401054207</v>
       </c>
       <c r="W9" s="80">
-        <f t="shared" ref="W9:W32" si="41">V9-$V$4</f>
+        <f t="shared" ref="W9:W32" si="43">V9-$V$4</f>
         <v>1.6980500694025338</v>
       </c>
       <c r="X9" s="84">
-        <f>(V$4+V9)/2</f>
+        <f t="shared" si="5"/>
         <v>5.2376677054041538</v>
       </c>
       <c r="Y9" s="84">
-        <f t="shared" ref="Y9:Y32" si="42">X9*Y$39</f>
+        <f t="shared" ref="Y9:Y32" si="44">X9*Y$39</f>
         <v>3.3154436575208295</v>
       </c>
       <c r="Z9" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.437667705404154</v>
       </c>
       <c r="AA9" s="118">
-        <f>(J$4+J9)/2</f>
+        <f t="shared" si="6"/>
         <v>14.076981539350182</v>
       </c>
       <c r="AB9" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.8263936706343484</v>
       </c>
       <c r="AC9" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16.723639439231953</v>
       </c>
       <c r="AD9" s="91"/>
@@ -5177,117 +5174,117 @@
     </row>
     <row r="10" spans="1:39" s="102" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.85946892193478774</v>
       </c>
       <c r="B10" s="93">
         <v>1.5</v>
       </c>
       <c r="C10" s="92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>66.666666666666657</v>
       </c>
       <c r="D10" s="92">
         <v>1</v>
       </c>
       <c r="E10" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14.733597053016169</v>
       </c>
       <c r="F10" s="95">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.0926658480600473</v>
       </c>
       <c r="G10" s="95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.0926658480600473</v>
       </c>
       <c r="H10" s="94">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9111990176720557</v>
       </c>
       <c r="I10" s="95">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.9289592141376448</v>
       </c>
       <c r="J10" s="94">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>11.786877642412936</v>
       </c>
       <c r="K10" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.97873952680351772</v>
       </c>
       <c r="L10" s="96">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.6614606009934492</v>
       </c>
       <c r="M10" s="97">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>29.391584223210533</v>
       </c>
       <c r="N10" s="97">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>55.890672620862439</v>
       </c>
       <c r="O10" s="98">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>87.943717445066426</v>
       </c>
       <c r="P10" s="98">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>94.563137037705829</v>
       </c>
       <c r="Q10" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.5139653936002235</v>
       </c>
       <c r="R10" s="99">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>7.5698269680011174</v>
       </c>
       <c r="S10" s="99">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>7.3827961326408804</v>
       </c>
       <c r="T10" s="99">
-        <f t="shared" si="38"/>
-        <v>6.3827961326408804</v>
-      </c>
-      <c r="U10" s="100">
-        <f t="shared" si="39"/>
-        <v>5.9062369061127047</v>
-      </c>
-      <c r="V10" s="100">
         <f t="shared" si="40"/>
         <v>6.3827961326408804</v>
       </c>
+      <c r="U10" s="100">
+        <f t="shared" si="41"/>
+        <v>5.9062369061127047</v>
+      </c>
+      <c r="V10" s="100">
+        <f t="shared" si="42"/>
+        <v>6.3827961326408804</v>
+      </c>
       <c r="W10" s="100">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.9941534619379935</v>
       </c>
       <c r="X10" s="101">
-        <f>(V$4+V10)/2</f>
+        <f t="shared" si="5"/>
         <v>5.3857194016718832</v>
       </c>
       <c r="Y10" s="101">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3.4091603812583022</v>
       </c>
       <c r="Z10" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.5857194016718834</v>
       </c>
       <c r="AA10" s="118">
-        <f>(J$4+J10)/2</f>
+        <f t="shared" si="6"/>
         <v>13.893438821206468</v>
       </c>
       <c r="AB10" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.7634647386993603</v>
       </c>
       <c r="AC10" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16.616266949117879</v>
       </c>
       <c r="AD10" s="91" t="s">
@@ -5305,117 +5302,117 @@
     </row>
     <row r="11" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0027273205240015</v>
       </c>
       <c r="B11" s="83">
         <v>1.75</v>
       </c>
       <c r="C11" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>57.142857142857139</v>
       </c>
       <c r="D11" s="83">
         <v>1</v>
       </c>
       <c r="E11" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14.31163468121113</v>
       </c>
       <c r="F11" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.9754540781142023</v>
       </c>
       <c r="G11" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.9754540781142023</v>
       </c>
       <c r="H11" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.7705448937370427</v>
       </c>
       <c r="I11" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.8164359149896345</v>
       </c>
       <c r="J11" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>11.449307744968904</v>
       </c>
       <c r="K11" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.97292354218498001</v>
       </c>
       <c r="L11" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.5852377869976659</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>26.937938461054607</v>
       </c>
       <c r="N11" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>63.338325781442826</v>
       </c>
       <c r="O11" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>92.861502029495099</v>
       </c>
       <c r="P11" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>99.851077451069997</v>
       </c>
       <c r="Q11" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.5743007937167088</v>
       </c>
       <c r="R11" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>7.8715039685835446</v>
       </c>
       <c r="S11" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>7.6770194752115186</v>
       </c>
       <c r="T11" s="26">
-        <f t="shared" si="38"/>
-        <v>6.6770194752115186</v>
-      </c>
-      <c r="U11" s="80">
-        <f t="shared" si="39"/>
-        <v>6.1416155801692156</v>
-      </c>
-      <c r="V11" s="80">
         <f t="shared" si="40"/>
         <v>6.6770194752115186</v>
       </c>
+      <c r="U11" s="80">
+        <f t="shared" si="41"/>
+        <v>6.1416155801692156</v>
+      </c>
+      <c r="V11" s="80">
+        <f t="shared" si="42"/>
+        <v>6.6770194752115186</v>
+      </c>
       <c r="W11" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2.2883768045086317</v>
       </c>
       <c r="X11" s="84">
-        <f>(V$4+V11)/2</f>
+        <f t="shared" si="5"/>
         <v>5.5328310729572028</v>
       </c>
       <c r="Y11" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3.5022820691819092</v>
       </c>
       <c r="Z11" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.732831072957203</v>
       </c>
       <c r="AA11" s="118">
-        <f>(J$4+J11)/2</f>
+        <f t="shared" si="6"/>
         <v>13.724653872484453</v>
       </c>
       <c r="AB11" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.7055956134232408</v>
       </c>
       <c r="AC11" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16.517527754115502</v>
       </c>
       <c r="AD11" s="105"/>
@@ -5431,117 +5428,117 @@
     </row>
     <row r="12" spans="1:39" s="87" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1459919861622325</v>
       </c>
       <c r="B12" s="86">
         <v>2</v>
       </c>
       <c r="C12" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="D12" s="83">
         <v>1</v>
       </c>
       <c r="E12" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13.918881681795691</v>
       </c>
       <c r="F12" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.8663560227210252</v>
       </c>
       <c r="G12" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.8663560227210252</v>
       </c>
       <c r="H12" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.6396272272652297</v>
       </c>
       <c r="I12" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.711701781812184</v>
       </c>
       <c r="J12" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>11.135105345436553</v>
       </c>
       <c r="K12" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.96751015569339915</v>
       </c>
       <c r="L12" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.5142913215754832</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>24.78047689799914</v>
       </c>
       <c r="N12" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>70.400157004113524</v>
       </c>
       <c r="O12" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>97.694925223688145</v>
       </c>
       <c r="P12" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>105.04830669213779</v>
       </c>
       <c r="Q12" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6336011793572922</v>
       </c>
       <c r="R12" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8.1680058967864611</v>
       </c>
       <c r="S12" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>7.9661956080492127</v>
       </c>
       <c r="T12" s="26">
-        <f t="shared" si="38"/>
-        <v>6.9661956080492127</v>
-      </c>
-      <c r="U12" s="80">
-        <f t="shared" si="39"/>
-        <v>6.3729564864393708</v>
-      </c>
-      <c r="V12" s="80">
         <f t="shared" si="40"/>
         <v>6.9661956080492127</v>
       </c>
+      <c r="U12" s="80">
+        <f t="shared" si="41"/>
+        <v>6.3729564864393708</v>
+      </c>
+      <c r="V12" s="80">
+        <f t="shared" si="42"/>
+        <v>6.9661956080492127</v>
+      </c>
       <c r="W12" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2.5775529373463257</v>
       </c>
       <c r="X12" s="84">
-        <f>(V$4+V12)/2</f>
+        <f t="shared" si="5"/>
         <v>5.6774191393760498</v>
       </c>
       <c r="Y12" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3.5938063152250397</v>
       </c>
       <c r="Z12" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3.87741913937605</v>
       </c>
       <c r="AA12" s="118">
-        <f>(J$4+J12)/2</f>
+        <f t="shared" si="6"/>
         <v>13.567552672718277</v>
       </c>
       <c r="AB12" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.6517323449319807</v>
       </c>
       <c r="AC12" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16.42562355225229</v>
       </c>
       <c r="AD12" s="108"/>
@@ -5557,117 +5554,117 @@
     </row>
     <row r="13" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2892638142541075</v>
       </c>
       <c r="B13" s="83">
         <v>2.25</v>
       </c>
       <c r="C13" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44.444444444444443</v>
       </c>
       <c r="D13" s="83">
         <v>1</v>
       </c>
       <c r="E13" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13.55</v>
       </c>
       <c r="F13" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.7638888888888893</v>
       </c>
       <c r="G13" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.7638888888888893</v>
       </c>
       <c r="H13" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.5166666666666666</v>
       </c>
       <c r="I13" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.6133333333333333</v>
       </c>
       <c r="J13" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10.84</v>
       </c>
       <c r="K13" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.96242579194265354</v>
       </c>
       <c r="L13" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.4476569444444451</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>22.862015580123678</v>
       </c>
       <c r="N13" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>77.101193750000022</v>
       </c>
       <c r="O13" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>102.41086627456815</v>
       </c>
       <c r="P13" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>110.11921104792273</v>
       </c>
       <c r="Q13" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.6914601980567985</v>
       </c>
       <c r="R13" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8.4573009902839917</v>
       </c>
       <c r="S13" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>8.2483429684174148</v>
       </c>
       <c r="T13" s="26">
-        <f t="shared" si="38"/>
-        <v>7.2483429684174148</v>
-      </c>
-      <c r="U13" s="80">
-        <f t="shared" si="39"/>
-        <v>6.5986743747339318</v>
-      </c>
-      <c r="V13" s="80">
         <f t="shared" si="40"/>
         <v>7.2483429684174148</v>
       </c>
+      <c r="U13" s="80">
+        <f t="shared" si="41"/>
+        <v>6.5986743747339318</v>
+      </c>
+      <c r="V13" s="80">
+        <f t="shared" si="42"/>
+        <v>7.2483429684174148</v>
+      </c>
       <c r="W13" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2.8597002977145278</v>
       </c>
       <c r="X13" s="84">
-        <f>(V$4+V13)/2</f>
+        <f t="shared" si="5"/>
         <v>5.8184928195601504</v>
       </c>
       <c r="Y13" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3.6831059547815754</v>
       </c>
       <c r="Z13" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.0184928195601506</v>
       </c>
       <c r="AA13" s="118">
-        <f>(J$4+J13)/2</f>
+        <f t="shared" si="6"/>
         <v>13.42</v>
       </c>
       <c r="AB13" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.6011428571428574</v>
       </c>
       <c r="AC13" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16.339305238712097</v>
       </c>
       <c r="AD13" s="105"/>
@@ -5683,117 +5680,117 @@
     </row>
     <row r="14" spans="1:39" s="90" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4325437002490189</v>
       </c>
       <c r="B14" s="83">
         <v>2.5</v>
       </c>
       <c r="C14" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="D14" s="83">
         <v>1</v>
       </c>
       <c r="E14" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13.201103030637984</v>
       </c>
       <c r="F14" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.6669730640661067</v>
       </c>
       <c r="G14" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.6669730640661067</v>
       </c>
       <c r="H14" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.4003676768793278</v>
       </c>
       <c r="I14" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.5202941415034625</v>
       </c>
       <c r="J14" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10.560882424510387</v>
       </c>
       <c r="K14" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.95761688114194954</v>
       </c>
       <c r="L14" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.3846325835621895</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>21.141085984503331</v>
       </c>
       <c r="N14" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>83.462140424676619</v>
       </c>
       <c r="O14" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>106.98785899274213</v>
       </c>
       <c r="P14" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>115.04070859434637</v>
       </c>
       <c r="Q14" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.7476144850614921</v>
       </c>
       <c r="R14" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>8.7380724253074611</v>
       </c>
       <c r="S14" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>8.5221772678551311</v>
       </c>
       <c r="T14" s="26">
-        <f t="shared" si="38"/>
-        <v>7.5221772678551311</v>
-      </c>
-      <c r="U14" s="80">
-        <f t="shared" si="39"/>
-        <v>6.8177418142841049</v>
-      </c>
-      <c r="V14" s="80">
         <f t="shared" si="40"/>
         <v>7.5221772678551311</v>
       </c>
+      <c r="U14" s="80">
+        <f t="shared" si="41"/>
+        <v>6.8177418142841049</v>
+      </c>
+      <c r="V14" s="80">
+        <f t="shared" si="42"/>
+        <v>7.5221772678551311</v>
+      </c>
       <c r="W14" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3.1335345971522441</v>
       </c>
       <c r="X14" s="84">
-        <f>(V$4+V14)/2</f>
+        <f t="shared" si="5"/>
         <v>5.9554099692790086</v>
       </c>
       <c r="Y14" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3.7697745105536127</v>
       </c>
       <c r="Z14" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.1554099692790087</v>
       </c>
       <c r="AA14" s="118">
-        <f>(J$4+J14)/2</f>
+        <f t="shared" si="6"/>
         <v>13.280441212255194</v>
       </c>
       <c r="AB14" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.5532941299160665</v>
       </c>
       <c r="AC14" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16.257663347881383</v>
       </c>
       <c r="AD14" s="106"/>
@@ -5809,117 +5806,117 @@
     </row>
     <row r="15" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5758325396467194</v>
       </c>
       <c r="B15" s="83">
         <v>2.75</v>
       </c>
       <c r="C15" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>36.363636363636367</v>
       </c>
       <c r="D15" s="83">
         <v>1</v>
       </c>
       <c r="E15" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12.869256700735891</v>
       </c>
       <c r="F15" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.5747935279821919</v>
       </c>
       <c r="G15" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.5747935279821919</v>
       </c>
       <c r="H15" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.2897522335786302</v>
       </c>
       <c r="I15" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.4318017868629043</v>
       </c>
       <c r="J15" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10.295405360588713</v>
       </c>
       <c r="K15" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.95304298242635377</v>
       </c>
       <c r="L15" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.3246882312468196</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>19.58650834951538</v>
       </c>
       <c r="N15" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>89.500496903002556</v>
       </c>
       <c r="O15" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>111.41169348376476</v>
       </c>
       <c r="P15" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>119.79751987501587</v>
       </c>
       <c r="Q15" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.801889701773931</v>
       </c>
       <c r="R15" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.0094485088696548</v>
       </c>
       <c r="S15" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>8.7868483506531074</v>
       </c>
       <c r="T15" s="26">
-        <f t="shared" si="38"/>
-        <v>7.7868483506531074</v>
-      </c>
-      <c r="U15" s="80">
-        <f t="shared" si="39"/>
-        <v>7.0294786805224865</v>
-      </c>
-      <c r="V15" s="80">
         <f t="shared" si="40"/>
         <v>7.7868483506531074</v>
       </c>
+      <c r="U15" s="80">
+        <f t="shared" si="41"/>
+        <v>7.0294786805224865</v>
+      </c>
+      <c r="V15" s="80">
+        <f t="shared" si="42"/>
+        <v>7.7868483506531074</v>
+      </c>
       <c r="W15" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3.3982056799502205</v>
       </c>
       <c r="X15" s="84">
-        <f>(V$4+V15)/2</f>
+        <f t="shared" si="5"/>
         <v>6.0877455106779976</v>
       </c>
       <c r="Y15" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3.8535429082591723</v>
       </c>
       <c r="Z15" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.2877455106779978</v>
       </c>
       <c r="AA15" s="118">
-        <f>(J$4+J15)/2</f>
+        <f t="shared" si="6"/>
         <v>13.147702680294357</v>
       </c>
       <c r="AB15" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.5077837761009221</v>
       </c>
       <c r="AC15" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16.180011306684296</v>
       </c>
       <c r="AD15" s="105"/>
@@ -5935,117 +5932,117 @@
     </row>
     <row r="16" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7191312280029225</v>
       </c>
       <c r="B16" s="83">
         <v>3</v>
       </c>
       <c r="C16" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>33.333333333333329</v>
       </c>
       <c r="D16" s="83">
         <v>1</v>
       </c>
       <c r="E16" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12.552181527453829</v>
       </c>
       <c r="F16" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.486717090959397</v>
       </c>
       <c r="G16" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.486717090959397</v>
       </c>
       <c r="H16" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.1840605091512764</v>
       </c>
       <c r="I16" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.3472484073210209</v>
       </c>
       <c r="J16" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10.041745221963064</v>
       </c>
       <c r="K16" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.94867267726658289</v>
       </c>
       <c r="L16" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.267412124250896</v>
       </c>
       <c r="M16" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>18.174156550053933</v>
       </c>
       <c r="N16" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>95.231309218537646</v>
       </c>
       <c r="O16" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>115.67287789284248</v>
       </c>
       <c r="P16" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>124.37943859445427</v>
       </c>
       <c r="Q16" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.8541693943627233</v>
       </c>
       <c r="R16" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.2708469718136168</v>
       </c>
       <c r="S16" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9.041788334018479</v>
       </c>
       <c r="T16" s="26">
-        <f t="shared" si="38"/>
-        <v>8.041788334018479</v>
-      </c>
-      <c r="U16" s="80">
-        <f t="shared" si="39"/>
-        <v>7.2334306672147832</v>
-      </c>
-      <c r="V16" s="80">
         <f t="shared" si="40"/>
         <v>8.041788334018479</v>
       </c>
+      <c r="U16" s="80">
+        <f t="shared" si="41"/>
+        <v>7.2334306672147832</v>
+      </c>
+      <c r="V16" s="80">
+        <f t="shared" si="42"/>
+        <v>8.041788334018479</v>
+      </c>
       <c r="W16" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3.6531456633155921</v>
       </c>
       <c r="X16" s="84">
-        <f>(V$4+V16)/2</f>
+        <f t="shared" si="5"/>
         <v>6.2152155023606834</v>
       </c>
       <c r="Y16" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3.9342314129943126</v>
       </c>
       <c r="Z16" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.4152155023606836</v>
       </c>
       <c r="AA16" s="118">
-        <f t="shared" ref="AA16:AA32" si="43">(J$4+J16)/2</f>
+        <f t="shared" ref="AA16:AA32" si="45">(J$4+J16)/2</f>
         <v>13.020872610981531</v>
       </c>
       <c r="AB16" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.4642991809079531</v>
       </c>
       <c r="AC16" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16.105815716136291</v>
       </c>
       <c r="AD16" s="105"/>
@@ -6061,117 +6058,117 @@
     </row>
     <row r="17" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8624406609348967</v>
       </c>
       <c r="B17" s="83">
         <v>3.25</v>
       </c>
       <c r="C17" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30.76923076923077</v>
       </c>
       <c r="D17" s="83">
         <v>1</v>
       </c>
       <c r="E17" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12.248064757752424</v>
       </c>
       <c r="F17" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.4022402104867844</v>
       </c>
       <c r="G17" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.4022402104867844</v>
       </c>
       <c r="H17" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.0826882525841413</v>
       </c>
       <c r="I17" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.266150602067313</v>
       </c>
       <c r="J17" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.798451806201939</v>
       </c>
       <c r="K17" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.94448098015563764</v>
       </c>
       <c r="L17" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.2124768088795563</v>
       </c>
       <c r="M17" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>16.88492175390207</v>
       </c>
       <c r="N17" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100.6676948040198</v>
       </c>
       <c r="O17" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>119.76509336680144</v>
       </c>
       <c r="P17" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>128.77967028688326</v>
       </c>
       <c r="Q17" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.9043760379733381</v>
       </c>
       <c r="R17" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.5218801898666907</v>
       </c>
       <c r="S17" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9.2866191708712833</v>
       </c>
       <c r="T17" s="26">
-        <f t="shared" si="38"/>
-        <v>8.2866191708712833</v>
-      </c>
-      <c r="U17" s="80">
-        <f t="shared" si="39"/>
-        <v>7.4292953366970274</v>
-      </c>
-      <c r="V17" s="80">
         <f t="shared" si="40"/>
         <v>8.2866191708712833</v>
       </c>
+      <c r="U17" s="80">
+        <f t="shared" si="41"/>
+        <v>7.4292953366970274</v>
+      </c>
+      <c r="V17" s="80">
+        <f t="shared" si="42"/>
+        <v>8.2866191708712833</v>
+      </c>
       <c r="W17" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3.8979765001683964</v>
       </c>
       <c r="X17" s="84">
-        <f>(V$4+V17)/2</f>
+        <f t="shared" si="5"/>
         <v>6.3376309207870847</v>
       </c>
       <c r="Y17" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.0117203728582247</v>
       </c>
       <c r="Z17" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.5376309207870849</v>
       </c>
       <c r="AA17" s="118">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>12.89922590310097</v>
       </c>
       <c r="AB17" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.4225917382060471</v>
       </c>
       <c r="AC17" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16.034652392026164</v>
       </c>
       <c r="AD17" s="105"/>
@@ -6187,117 +6184,117 @@
     </row>
     <row r="18" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.005761734127065</v>
       </c>
       <c r="B18" s="83">
         <v>3.5</v>
       </c>
       <c r="C18" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>28.571428571428569</v>
       </c>
       <c r="D18" s="83">
         <v>1</v>
       </c>
       <c r="E18" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.955436618436027</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.3209546162322292</v>
       </c>
       <c r="G18" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.3209546162322292</v>
       </c>
       <c r="H18" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.9851455394786752</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.1881164315829404</v>
       </c>
       <c r="J18" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.5643492947488209</v>
       </c>
       <c r="K18" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.94044763294049338</v>
       </c>
       <c r="L18" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.1596167869358189</v>
       </c>
       <c r="M18" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>15.703373302728055</v>
       </c>
       <c r="N18" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>105.82122255985513</v>
       </c>
       <c r="O18" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>123.684212649519</v>
       </c>
       <c r="P18" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>132.99377704249355</v>
       </c>
       <c r="Q18" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.9524589960548515</v>
       </c>
       <c r="R18" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.7622949802742571</v>
       </c>
       <c r="S18" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9.5210939339475846</v>
       </c>
       <c r="T18" s="26">
-        <f t="shared" si="38"/>
-        <v>8.5210939339475846</v>
-      </c>
-      <c r="U18" s="80">
-        <f t="shared" si="39"/>
-        <v>7.6168751471580682</v>
-      </c>
-      <c r="V18" s="80">
         <f t="shared" si="40"/>
         <v>8.5210939339475846</v>
       </c>
+      <c r="U18" s="80">
+        <f t="shared" si="41"/>
+        <v>7.6168751471580682</v>
+      </c>
+      <c r="V18" s="80">
+        <f t="shared" si="42"/>
+        <v>8.5210939339475846</v>
+      </c>
       <c r="W18" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.1324512632446977</v>
       </c>
       <c r="X18" s="84">
-        <f>(V$4+V18)/2</f>
+        <f t="shared" si="5"/>
         <v>6.4548683023252362</v>
       </c>
       <c r="Y18" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.0859316353718746</v>
       </c>
       <c r="Z18" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.6548683023252364</v>
       </c>
       <c r="AA18" s="118">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>12.782174647374411</v>
       </c>
       <c r="AB18" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.3824598790997982</v>
       </c>
       <c r="AC18" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.966177407426127</v>
       </c>
       <c r="AD18" s="105"/>
@@ -6313,117 +6310,117 @@
     </row>
     <row r="19" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1490953433366</v>
       </c>
       <c r="B19" s="83">
         <v>3.75</v>
       </c>
       <c r="C19" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26.666666666666668</v>
       </c>
       <c r="D19" s="83">
         <v>1</v>
       </c>
       <c r="E19" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.673085805654054</v>
       </c>
       <c r="F19" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.2425238349039041</v>
       </c>
       <c r="G19" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.2425238349039041</v>
       </c>
       <c r="H19" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.8910286018846847</v>
       </c>
       <c r="I19" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.1128228815077477</v>
       </c>
       <c r="J19" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.3384686445232425</v>
       </c>
       <c r="K19" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.93655593999842612</v>
       </c>
       <c r="L19" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.108613249838009</v>
       </c>
       <c r="M19" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>14.616845769172246</v>
       </c>
       <c r="N19" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>110.70219561649547</v>
       </c>
       <c r="O19" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>127.42765463550573</v>
       </c>
       <c r="P19" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>137.01898347903841</v>
       </c>
       <c r="Q19" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.9983866014958283</v>
       </c>
       <c r="R19" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9919330074791404</v>
       </c>
       <c r="S19" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9.7450581997520871</v>
       </c>
       <c r="T19" s="26">
-        <f t="shared" si="38"/>
-        <v>8.7450581997520871</v>
-      </c>
-      <c r="U19" s="80">
-        <f t="shared" si="39"/>
-        <v>7.7960465598016704</v>
-      </c>
-      <c r="V19" s="80">
         <f t="shared" si="40"/>
         <v>8.7450581997520871</v>
       </c>
+      <c r="U19" s="80">
+        <f t="shared" si="41"/>
+        <v>7.7960465598016704</v>
+      </c>
+      <c r="V19" s="80">
+        <f t="shared" si="42"/>
+        <v>8.7450581997520871</v>
+      </c>
       <c r="W19" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.3564155290492002</v>
       </c>
       <c r="X19" s="84">
-        <f>(V$4+V19)/2</f>
+        <f t="shared" si="5"/>
         <v>6.5668504352274866</v>
       </c>
       <c r="Y19" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.1568163254989994</v>
       </c>
       <c r="Z19" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.7668504352274867</v>
       </c>
       <c r="AA19" s="118">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>12.669234322261621</v>
       </c>
       <c r="AB19" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.3437374819182706</v>
       </c>
       <c r="AC19" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.900107317235145</v>
       </c>
       <c r="AD19" s="105"/>
@@ -6439,117 +6436,117 @@
     </row>
     <row r="20" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2924423843990267</v>
       </c>
       <c r="B20" s="83">
         <v>4</v>
       </c>
       <c r="C20" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="D20" s="83">
         <v>1</v>
       </c>
       <c r="E20" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.4</v>
       </c>
       <c r="F20" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="G20" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="H20" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.8</v>
       </c>
       <c r="I20" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.04</v>
       </c>
       <c r="J20" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.120000000000001</v>
       </c>
       <c r="K20" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.93279194834573254</v>
       </c>
       <c r="L20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.0592833333333336</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>13.6147974537037</v>
       </c>
       <c r="N20" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>115.31986666666667</v>
       </c>
       <c r="O20" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>130.9939474537037</v>
       </c>
       <c r="P20" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>140.85370693946632</v>
       </c>
       <c r="Q20" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.0421407961793108</v>
       </c>
       <c r="R20" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10.210703980896554</v>
       </c>
       <c r="S20" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9.9584239085467026</v>
       </c>
       <c r="T20" s="26">
-        <f t="shared" si="38"/>
-        <v>8.9584239085467026</v>
-      </c>
-      <c r="U20" s="80">
-        <f t="shared" si="39"/>
-        <v>7.9667391268373624</v>
-      </c>
-      <c r="V20" s="80">
         <f t="shared" si="40"/>
         <v>8.9584239085467026</v>
       </c>
+      <c r="U20" s="80">
+        <f t="shared" si="41"/>
+        <v>7.9667391268373624</v>
+      </c>
+      <c r="V20" s="80">
+        <f t="shared" si="42"/>
+        <v>8.9584239085467026</v>
+      </c>
       <c r="W20" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.5697812378438156</v>
       </c>
       <c r="X20" s="84">
-        <f>(V$4+V20)/2</f>
+        <f t="shared" si="5"/>
         <v>6.6735332896247943</v>
       </c>
       <c r="Y20" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.2243465723324949</v>
       </c>
       <c r="Z20" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.8735332896247945</v>
       </c>
       <c r="AA20" s="118">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>12.56</v>
       </c>
       <c r="AB20" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.3062857142857149</v>
       </c>
       <c r="AC20" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.836205238712099</v>
       </c>
       <c r="AD20" s="105"/>
@@ -6565,117 +6562,117 @@
     </row>
     <row r="21" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4358037532338188</v>
       </c>
       <c r="B21" s="83">
         <v>4.25</v>
       </c>
       <c r="C21" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23.52941176470588</v>
       </c>
       <c r="D21" s="83">
         <v>1</v>
       </c>
       <c r="E21" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.135322904922029</v>
       </c>
       <c r="F21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.0931452513672304</v>
       </c>
       <c r="G21" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.0931452513672304</v>
       </c>
       <c r="H21" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.7117743016406761</v>
       </c>
       <c r="I21" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.969419441312541</v>
       </c>
       <c r="J21" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8.9082583239376234</v>
       </c>
       <c r="K21" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.92914385549027756</v>
       </c>
       <c r="L21" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.0114723569641102</v>
       </c>
       <c r="M21" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>12.688347863680114</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>119.68260523936456</v>
       </c>
       <c r="O21" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>134.38242546000879</v>
       </c>
       <c r="P21" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>144.4972316774288</v>
       </c>
       <c r="Q21" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.0837134134394626</v>
       </c>
       <c r="R21" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10.418567067197312</v>
       </c>
       <c r="S21" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10.161151235888145</v>
       </c>
       <c r="T21" s="26">
-        <f t="shared" si="38"/>
-        <v>9.1611512358881448</v>
-      </c>
-      <c r="U21" s="80">
-        <f t="shared" si="39"/>
-        <v>8.1289209887105169</v>
-      </c>
-      <c r="V21" s="80">
         <f t="shared" si="40"/>
         <v>9.1611512358881448</v>
       </c>
+      <c r="U21" s="80">
+        <f t="shared" si="41"/>
+        <v>8.1289209887105169</v>
+      </c>
+      <c r="V21" s="80">
+        <f t="shared" si="42"/>
+        <v>9.1611512358881448</v>
+      </c>
       <c r="W21" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.7725085651852579</v>
       </c>
       <c r="X21" s="84">
-        <f>(V$4+V21)/2</f>
+        <f t="shared" si="5"/>
         <v>6.7748969532955154</v>
       </c>
       <c r="Y21" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.2885097714360612</v>
       </c>
       <c r="Z21" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.9748969532955156</v>
       </c>
       <c r="AA21" s="119">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>12.454129161968812</v>
       </c>
       <c r="AB21" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.2699871412464496</v>
       </c>
       <c r="AC21" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.774270798463851</v>
       </c>
       <c r="AD21" s="105"/>
@@ -6691,117 +6688,117 @@
     </row>
     <row r="22" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5791803458499971</v>
       </c>
       <c r="B22" s="83">
         <v>4.5</v>
       </c>
       <c r="C22" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22.222222222222221</v>
       </c>
       <c r="D22" s="83">
         <v>1</v>
       </c>
       <c r="E22" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.878322522693539</v>
       </c>
       <c r="F22" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.0217562563037608</v>
       </c>
       <c r="G22" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.0217562563037608</v>
       </c>
       <c r="H22" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.6261075075645128</v>
       </c>
       <c r="I22" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.9008860060516102</v>
       </c>
       <c r="J22" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8.7026580181548319</v>
       </c>
       <c r="K22" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.92560157217339012</v>
       </c>
       <c r="L22" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.965048093474336</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>11.829936757528655</v>
       </c>
       <c r="N22" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>123.79802988888316</v>
       </c>
       <c r="O22" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>137.59301473988614</v>
       </c>
       <c r="P22" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>147.94947821493133</v>
       </c>
       <c r="Q22" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.1231035464323664</v>
       </c>
       <c r="R22" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10.615517732161832</v>
       </c>
       <c r="S22" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10.35323575958566</v>
       </c>
       <c r="T22" s="26">
-        <f t="shared" si="38"/>
-        <v>9.3532357595856599</v>
-      </c>
-      <c r="U22" s="80">
-        <f t="shared" si="39"/>
-        <v>8.2825886076685276</v>
-      </c>
-      <c r="V22" s="80">
         <f t="shared" si="40"/>
         <v>9.3532357595856599</v>
       </c>
+      <c r="U22" s="80">
+        <f t="shared" si="41"/>
+        <v>8.2825886076685276</v>
+      </c>
+      <c r="V22" s="80">
+        <f t="shared" si="42"/>
+        <v>9.3532357595856599</v>
+      </c>
       <c r="W22" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.964593088882773</v>
       </c>
       <c r="X22" s="84">
-        <f>(V$4+V22)/2</f>
+        <f t="shared" si="5"/>
         <v>6.8709392151442739</v>
       </c>
       <c r="Y22" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.3493045231863254</v>
       </c>
       <c r="Z22" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.070939215144274</v>
       </c>
       <c r="AA22" s="119">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>12.351329009077416</v>
       </c>
       <c r="AB22" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.2347413745408282</v>
       </c>
       <c r="AC22" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.714132709022385</v>
       </c>
       <c r="AD22" s="105"/>
@@ -6817,117 +6814,117 @@
     </row>
     <row r="23" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7225730583517334</v>
       </c>
       <c r="B23" s="83">
         <v>4.75</v>
       </c>
       <c r="C23" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21.052631578947366</v>
       </c>
       <c r="D23" s="83">
         <v>1</v>
       </c>
       <c r="E23" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.628367271387551</v>
       </c>
       <c r="F23" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.9523242420520974</v>
       </c>
       <c r="G23" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.9523242420520974</v>
       </c>
       <c r="H23" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.542789090462517</v>
       </c>
       <c r="I23" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.8342312723700136</v>
       </c>
       <c r="J23" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8.5026938171100408</v>
       </c>
       <c r="K23" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.92215639318574794</v>
       </c>
       <c r="L23" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.9198964546064792</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>11.033067898612943</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>127.67311423133086</v>
       </c>
       <c r="O23" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>140.62607858455027</v>
       </c>
       <c r="P23" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>151.21083718768844</v>
       </c>
       <c r="Q23" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.160315652311525</v>
       </c>
       <c r="R23" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10.801578261557625</v>
       </c>
       <c r="S23" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10.534699214783116</v>
       </c>
       <c r="T23" s="26">
-        <f t="shared" si="38"/>
-        <v>9.5346992147831156</v>
-      </c>
-      <c r="U23" s="80">
-        <f t="shared" si="39"/>
-        <v>8.4277593718264932</v>
-      </c>
-      <c r="V23" s="80">
         <f t="shared" si="40"/>
         <v>9.5346992147831156</v>
       </c>
+      <c r="U23" s="80">
+        <f t="shared" si="41"/>
+        <v>8.4277593718264932</v>
+      </c>
+      <c r="V23" s="80">
+        <f t="shared" si="42"/>
+        <v>9.5346992147831156</v>
+      </c>
       <c r="W23" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.1460565440802286</v>
       </c>
       <c r="X23" s="84">
-        <f>(V$4+V23)/2</f>
+        <f t="shared" si="5"/>
         <v>6.9616709427430017</v>
       </c>
       <c r="Y23" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.4067377067563198</v>
       </c>
       <c r="Z23" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.1616709427430019</v>
       </c>
       <c r="AA23" s="119">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>12.251346908555021</v>
       </c>
       <c r="AB23" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.2004617972188649</v>
       </c>
       <c r="AC23" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.655643180216785</v>
       </c>
       <c r="AD23" s="105"/>
@@ -6943,117 +6940,117 @@
     </row>
     <row r="24" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8659827869439467</v>
       </c>
       <c r="B24" s="83">
         <v>5</v>
       </c>
       <c r="C24" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="D24" s="83">
         <v>1</v>
       </c>
       <c r="E24" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.384907696750904</v>
       </c>
       <c r="F24" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.8846965824308066</v>
       </c>
       <c r="G24" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.8846965824308066</v>
       </c>
       <c r="H24" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.4616358989169678</v>
       </c>
       <c r="I24" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.7693087191335746</v>
       </c>
       <c r="J24" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8.3079261574007237</v>
       </c>
       <c r="K24" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.91880074529879185</v>
       </c>
       <c r="L24" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.8759181875547539</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>10.292113173127175</v>
       </c>
       <c r="N24" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>131.31427312883275</v>
       </c>
       <c r="O24" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>143.48230448951469</v>
       </c>
       <c r="P24" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>154.28204783818782</v>
       </c>
       <c r="Q24" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.1953581658337229</v>
       </c>
       <c r="R24" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10.976790829168614</v>
       </c>
       <c r="S24" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10.705582733259375</v>
       </c>
       <c r="T24" s="26">
-        <f t="shared" si="38"/>
-        <v>9.7055827332593747</v>
-      </c>
-      <c r="U24" s="80">
-        <f t="shared" si="39"/>
-        <v>8.5644661866075005</v>
-      </c>
-      <c r="V24" s="80">
         <f t="shared" si="40"/>
         <v>9.7055827332593747</v>
       </c>
+      <c r="U24" s="80">
+        <f t="shared" si="41"/>
+        <v>8.5644661866075005</v>
+      </c>
+      <c r="V24" s="80">
+        <f t="shared" si="42"/>
+        <v>9.7055827332593747</v>
+      </c>
       <c r="W24" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.3169400625564878</v>
       </c>
       <c r="X24" s="84">
-        <f>(V$4+V24)/2</f>
+        <f t="shared" si="5"/>
         <v>7.0471127019811313</v>
       </c>
       <c r="Y24" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.4608223403540563</v>
       </c>
       <c r="Z24" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.2471127019811314</v>
       </c>
       <c r="AA24" s="119">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>12.153963078700361</v>
       </c>
       <c r="AB24" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.1670730555544093</v>
       </c>
       <c r="AC24" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.598673639751807</v>
       </c>
       <c r="AD24" s="105"/>
@@ -7069,117 +7066,117 @@
     </row>
     <row r="25" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0094104279379073</v>
       </c>
       <c r="B25" s="83">
         <v>5.25</v>
       </c>
       <c r="C25" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>19.047619047619047</v>
       </c>
       <c r="D25" s="83">
         <v>1</v>
       </c>
       <c r="E25" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10.147462255844944</v>
       </c>
       <c r="F25" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.8187395155124846</v>
       </c>
       <c r="G25" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.8187395155124846</v>
       </c>
       <c r="H25" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.3824874186149811</v>
       </c>
       <c r="I25" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.7059899348919849</v>
       </c>
       <c r="J25" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8.1179698046759547</v>
       </c>
       <c r="K25" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.91552799131804341</v>
       </c>
       <c r="L25" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.833026306937769</v>
       </c>
       <c r="M25" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.602160580569576</v>
       </c>
       <c r="N25" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>134.72743355992603</v>
       </c>
       <c r="O25" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>146.16262044743337</v>
       </c>
       <c r="P25" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>157.16410800799287</v>
       </c>
       <c r="Q25" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.2282424723711984</v>
       </c>
       <c r="R25" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>11.141212361855992</v>
       </c>
       <c r="S25" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10.865941835360198</v>
       </c>
       <c r="T25" s="26">
-        <f t="shared" si="38"/>
-        <v>9.8659418353601982</v>
-      </c>
-      <c r="U25" s="80">
-        <f t="shared" si="39"/>
-        <v>8.6927534682881582</v>
-      </c>
-      <c r="V25" s="80">
         <f t="shared" si="40"/>
         <v>9.8659418353601982</v>
       </c>
+      <c r="U25" s="80">
+        <f t="shared" si="41"/>
+        <v>8.6927534682881582</v>
+      </c>
+      <c r="V25" s="80">
+        <f t="shared" si="42"/>
+        <v>9.8659418353601982</v>
+      </c>
       <c r="W25" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.4772991646573113</v>
       </c>
       <c r="X25" s="84">
-        <f>(V$4+V25)/2</f>
+        <f t="shared" si="5"/>
         <v>7.127292253031543</v>
       </c>
       <c r="Y25" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.5115759961689665</v>
       </c>
       <c r="Z25" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.3272922530315432</v>
       </c>
       <c r="AA25" s="119">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>12.058984902337977</v>
       </c>
       <c r="AB25" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.1345091093730204</v>
       </c>
       <c r="AC25" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.543111406579813</v>
       </c>
       <c r="AD25" s="105"/>
@@ -7195,117 +7192,117 @@
     </row>
     <row r="26" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.1528568777568386</v>
       </c>
       <c r="B26" s="83">
         <v>5.5</v>
       </c>
       <c r="C26" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18.181818181818183</v>
       </c>
       <c r="D26" s="83">
         <v>1</v>
       </c>
       <c r="E26" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.9156061163796263</v>
       </c>
       <c r="F26" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.7543350323276741</v>
       </c>
       <c r="G26" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.7543350323276741</v>
       </c>
       <c r="H26" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.3052020387932086</v>
       </c>
       <c r="I26" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.6441616310345668</v>
       </c>
       <c r="J26" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>7.9324848931037009</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.91233227570227537</v>
       </c>
       <c r="L26" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.7911440715226867</v>
       </c>
       <c r="M26" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.958894674737623</v>
       </c>
       <c r="N26" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>137.91809350724688</v>
       </c>
       <c r="O26" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>148.6681322535072</v>
       </c>
       <c r="P26" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>159.85820672420127</v>
       </c>
       <c r="Q26" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.2589821387231366</v>
       </c>
       <c r="R26" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>11.294910693615684</v>
       </c>
       <c r="S26" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>11.015842679079013</v>
       </c>
       <c r="T26" s="26">
-        <f t="shared" si="38"/>
-        <v>10.015842679079013</v>
-      </c>
-      <c r="U26" s="80">
-        <f t="shared" si="39"/>
-        <v>8.8126741432632105</v>
-      </c>
-      <c r="V26" s="80">
         <f t="shared" si="40"/>
         <v>10.015842679079013</v>
       </c>
+      <c r="U26" s="80">
+        <f t="shared" si="41"/>
+        <v>8.8126741432632105</v>
+      </c>
+      <c r="V26" s="80">
+        <f t="shared" si="42"/>
+        <v>10.015842679079013</v>
+      </c>
       <c r="W26" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.6272000083761258</v>
       </c>
       <c r="X26" s="84">
-        <f>(V$4+V26)/2</f>
+        <f t="shared" si="5"/>
         <v>7.2022426748909503</v>
       </c>
       <c r="Y26" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.5590196132059715</v>
       </c>
       <c r="Z26" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.4022426748909504</v>
       </c>
       <c r="AA26" s="119">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>11.966242446551851</v>
       </c>
       <c r="AB26" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.1027116959606342</v>
       </c>
       <c r="AC26" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.488857069944928</v>
       </c>
       <c r="AD26" s="105"/>
@@ -7321,117 +7318,117 @@
     </row>
     <row r="27" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.2963230329415198</v>
       </c>
       <c r="B27" s="83">
         <v>5.75</v>
       </c>
       <c r="C27" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17.391304347826086</v>
       </c>
       <c r="D27" s="83">
         <v>1</v>
       </c>
       <c r="E27" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.6889622248776544</v>
       </c>
       <c r="F27" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.6913783957993487</v>
       </c>
       <c r="G27" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.6913783957993487</v>
       </c>
       <c r="H27" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.229654074959218</v>
       </c>
       <c r="I27" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.5837232599673743</v>
       </c>
       <c r="J27" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>7.7511697799021233</v>
       </c>
       <c r="K27" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.90920840145438375</v>
       </c>
       <c r="L27" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.7502033707883167</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.358501386221457</v>
       </c>
       <c r="N27" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>140.89137134845947</v>
       </c>
       <c r="O27" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>151.00007610546925</v>
       </c>
       <c r="P27" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>162.36567323168734</v>
       </c>
       <c r="Q27" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.2875923315735527</v>
       </c>
       <c r="R27" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>11.437961657867763</v>
       </c>
       <c r="S27" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>11.155359224188324</v>
       </c>
       <c r="T27" s="26">
-        <f t="shared" si="38"/>
-        <v>10.155359224188324</v>
-      </c>
-      <c r="U27" s="80">
-        <f t="shared" si="39"/>
-        <v>8.924287379350659</v>
-      </c>
-      <c r="V27" s="80">
         <f t="shared" si="40"/>
         <v>10.155359224188324</v>
       </c>
+      <c r="U27" s="80">
+        <f t="shared" si="41"/>
+        <v>8.924287379350659</v>
+      </c>
+      <c r="V27" s="80">
+        <f t="shared" si="42"/>
+        <v>10.155359224188324</v>
+      </c>
       <c r="W27" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.7667165534854368</v>
       </c>
       <c r="X27" s="84">
-        <f>(V$4+V27)/2</f>
+        <f t="shared" si="5"/>
         <v>7.2720009474456049</v>
       </c>
       <c r="Y27" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.603176599733068</v>
       </c>
       <c r="Z27" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.4720009474456051</v>
       </c>
       <c r="AA27" s="119">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>11.875584889951062</v>
       </c>
       <c r="AB27" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.0716291051260782</v>
       </c>
       <c r="AC27" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.435822399333466</v>
       </c>
       <c r="AD27" s="105"/>
@@ -7447,117 +7444,117 @@
     </row>
     <row r="28" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4398097901558868</v>
       </c>
       <c r="B28" s="83">
         <v>6</v>
       </c>
       <c r="C28" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.666666666666664</v>
       </c>
       <c r="D28" s="83">
         <v>1</v>
       </c>
       <c r="E28" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.4671941060323359</v>
       </c>
       <c r="F28" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.6297761405645379</v>
       </c>
       <c r="G28" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.6297761405645379</v>
       </c>
       <c r="H28" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.1557313686774453</v>
       </c>
       <c r="I28" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.5245850949419562</v>
       </c>
       <c r="J28" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>7.5737552848258689</v>
       </c>
       <c r="K28" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.90615173087361844</v>
       </c>
       <c r="L28" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.7101434242091194</v>
       </c>
       <c r="M28" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.7975914241248674</v>
       </c>
       <c r="N28" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>143.65204763356604</v>
       </c>
       <c r="O28" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>153.15978248190004</v>
       </c>
       <c r="P28" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>164.68793815258067</v>
       </c>
       <c r="Q28" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.3140893743209454</v>
       </c>
       <c r="R28" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>11.570446871604727</v>
       </c>
       <c r="S28" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>11.284571071135947</v>
       </c>
       <c r="T28" s="26">
-        <f t="shared" si="38"/>
-        <v>10.284571071135947</v>
-      </c>
-      <c r="U28" s="80">
-        <f t="shared" si="39"/>
-        <v>9.0276568569087576</v>
-      </c>
-      <c r="V28" s="80">
         <f t="shared" si="40"/>
         <v>10.284571071135947</v>
       </c>
+      <c r="U28" s="80">
+        <f t="shared" si="41"/>
+        <v>9.0276568569087576</v>
+      </c>
+      <c r="V28" s="80">
+        <f t="shared" si="42"/>
+        <v>10.284571071135947</v>
+      </c>
       <c r="W28" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.8959284004330597</v>
       </c>
       <c r="X28" s="84">
-        <f>(V$4+V28)/2</f>
+        <f t="shared" si="5"/>
         <v>7.3366068709194163</v>
       </c>
       <c r="Y28" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.6440721492919907</v>
       </c>
       <c r="Z28" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.5366068709194165</v>
       </c>
       <c r="AA28" s="119">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>11.786877642412934</v>
       </c>
       <c r="AB28" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.0412151916844348</v>
       </c>
       <c r="AC28" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.383928659523663</v>
       </c>
       <c r="AD28" s="105"/>
@@ -7573,117 +7570,117 @@
     </row>
     <row r="29" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5833180461926402</v>
       </c>
       <c r="B29" s="83">
         <v>6.25</v>
       </c>
       <c r="C29" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="D29" s="83">
         <v>1</v>
       </c>
       <c r="E29" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.25</v>
       </c>
       <c r="F29" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.5694444444444446</v>
       </c>
       <c r="G29" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.5694444444444446</v>
       </c>
       <c r="H29" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.083333333333333</v>
       </c>
       <c r="I29" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.4666666666666668</v>
       </c>
       <c r="J29" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>7.4</v>
       </c>
       <c r="K29" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.90315810474881131</v>
       </c>
       <c r="L29" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.6709097222222227</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.2731380174843556</v>
       </c>
       <c r="N29" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>146.20460069444448</v>
       </c>
       <c r="O29" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>155.14864843415106</v>
       </c>
       <c r="P29" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>166.82650369263553</v>
       </c>
       <c r="Q29" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.3384904071329715</v>
       </c>
       <c r="R29" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>11.692452035664857</v>
       </c>
       <c r="S29" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>11.403561803314227</v>
       </c>
       <c r="T29" s="26">
-        <f t="shared" si="38"/>
-        <v>10.403561803314227</v>
-      </c>
-      <c r="U29" s="80">
-        <f t="shared" si="39"/>
-        <v>9.1228494426513826</v>
-      </c>
-      <c r="V29" s="80">
         <f t="shared" si="40"/>
         <v>10.403561803314227</v>
       </c>
+      <c r="U29" s="80">
+        <f t="shared" si="41"/>
+        <v>9.1228494426513826</v>
+      </c>
+      <c r="V29" s="80">
+        <f t="shared" si="42"/>
+        <v>10.403561803314227</v>
+      </c>
       <c r="W29" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>6.0149191326113405</v>
       </c>
       <c r="X29" s="84">
-        <f>(V$4+V29)/2</f>
+        <f t="shared" si="5"/>
         <v>7.3961022370085576</v>
       </c>
       <c r="Y29" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.6817327160264171</v>
       </c>
       <c r="Z29" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.5961022370085578</v>
       </c>
       <c r="AA29" s="119">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>11.7</v>
       </c>
       <c r="AB29" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.0114285714285716</v>
       </c>
       <c r="AC29" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.333105238712097</v>
       </c>
       <c r="AD29" s="105"/>
@@ -7699,117 +7696,117 @@
     </row>
     <row r="30" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.7268486979788458</v>
       </c>
       <c r="B30" s="83">
         <v>6.5</v>
       </c>
       <c r="C30" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.384615384615385</v>
       </c>
       <c r="D30" s="83">
         <v>1</v>
       </c>
       <c r="E30" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.0371080457755131</v>
       </c>
       <c r="F30" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.5103077904931981</v>
       </c>
       <c r="G30" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.5103077904931981</v>
       </c>
       <c r="H30" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.0123693485918377</v>
       </c>
       <c r="I30" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.4098954788734703</v>
       </c>
       <c r="J30" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>7.2296864366204101</v>
       </c>
       <c r="K30" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.90022377596995951</v>
       </c>
       <c r="L30" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.6324531561577269</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.7824258534905955</v>
       </c>
       <c r="N30" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>148.55323721035313</v>
       </c>
       <c r="O30" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>156.96811622000146</v>
       </c>
       <c r="P30" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>168.78292066666822</v>
       </c>
       <c r="Q30" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.3608131248066844</v>
       </c>
       <c r="R30" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>11.804065624033422</v>
       </c>
       <c r="S30" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>11.512417708745208</v>
       </c>
       <c r="T30" s="26">
-        <f t="shared" si="38"/>
-        <v>10.512417708745208</v>
-      </c>
-      <c r="U30" s="80">
-        <f t="shared" si="39"/>
-        <v>9.2099341669961667</v>
-      </c>
-      <c r="V30" s="80">
         <f t="shared" si="40"/>
         <v>10.512417708745208</v>
       </c>
+      <c r="U30" s="80">
+        <f t="shared" si="41"/>
+        <v>9.2099341669961667</v>
+      </c>
+      <c r="V30" s="80">
+        <f t="shared" si="42"/>
+        <v>10.512417708745208</v>
+      </c>
       <c r="W30" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>6.1237750380423206</v>
       </c>
       <c r="X30" s="84">
-        <f>(V$4+V30)/2</f>
+        <f t="shared" si="5"/>
         <v>7.4505301897240468</v>
       </c>
       <c r="Y30" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.7161856100953221</v>
       </c>
       <c r="Z30" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.650530189724047</v>
       </c>
       <c r="AA30" s="119">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>11.614843218310206</v>
       </c>
       <c r="AB30" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.982231960563499</v>
       </c>
       <c r="AC30" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.283288521423566</v>
       </c>
       <c r="AD30" s="109"/>
@@ -7825,117 +7822,117 @@
     </row>
     <row r="31" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.8704026425815461</v>
       </c>
       <c r="B31" s="83">
         <v>6.75</v>
       </c>
       <c r="C31" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14.814814814814813</v>
       </c>
       <c r="D31" s="83">
         <v>1</v>
       </c>
       <c r="E31" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.8282722911807419</v>
       </c>
       <c r="F31" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.4522978586613173</v>
       </c>
       <c r="G31" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.4522978586613173</v>
       </c>
       <c r="H31" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.9427574303935806</v>
       </c>
       <c r="I31" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.3542059443148644</v>
       </c>
       <c r="J31" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>7.0626178329445937</v>
       </c>
       <c r="K31" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.89734535453316577</v>
       </c>
       <c r="L31" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.594729297487455</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.3230088516391678</v>
       </c>
       <c r="N31" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>150.7019186125645</v>
       </c>
       <c r="O31" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>158.61965676169112</v>
       </c>
       <c r="P31" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>170.55877071149581</v>
       </c>
       <c r="Q31" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.3810755738181673</v>
       </c>
       <c r="R31" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>11.905377869090836</v>
       </c>
       <c r="S31" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>11.611226790400684</v>
       </c>
       <c r="T31" s="26">
-        <f t="shared" si="38"/>
-        <v>10.611226790400684</v>
-      </c>
-      <c r="U31" s="80">
-        <f t="shared" si="39"/>
-        <v>9.2889814323205471</v>
-      </c>
-      <c r="V31" s="80">
         <f t="shared" si="40"/>
         <v>10.611226790400684</v>
       </c>
+      <c r="U31" s="80">
+        <f t="shared" si="41"/>
+        <v>9.2889814323205471</v>
+      </c>
+      <c r="V31" s="80">
+        <f t="shared" si="42"/>
+        <v>10.611226790400684</v>
+      </c>
       <c r="W31" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>6.2225841196977969</v>
       </c>
       <c r="X31" s="84">
-        <f>(V$4+V31)/2</f>
+        <f t="shared" si="5"/>
         <v>7.4999347305517858</v>
       </c>
       <c r="Y31" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.7474586844392803</v>
       </c>
       <c r="Z31" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.699934730551786</v>
       </c>
       <c r="AA31" s="119">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>11.531308916472296</v>
       </c>
       <c r="AB31" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.9535916285047872</v>
       </c>
       <c r="AC31" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.234420954848391</v>
       </c>
       <c r="AD31" s="105"/>
@@ -7951,117 +7948,117 @@
     </row>
     <row r="32" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0139807772133613</v>
       </c>
       <c r="B32" s="83">
         <v>7</v>
       </c>
       <c r="C32" s="83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14.285714285714285</v>
       </c>
       <c r="D32" s="83">
         <v>1</v>
       </c>
       <c r="E32" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.6232693624222598</v>
       </c>
       <c r="F32" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.3953526006728501</v>
       </c>
       <c r="G32" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.3953526006728501</v>
       </c>
       <c r="H32" s="27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.8744231208074198</v>
       </c>
       <c r="I32" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.299538496645936</v>
       </c>
       <c r="J32" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.898615489937808</v>
       </c>
       <c r="K32" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.89451976163654268</v>
       </c>
       <c r="L32" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.5576977962175547</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8926749788441963</v>
       </c>
       <c r="N32" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>152.65438402932037</v>
       </c>
       <c r="O32" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>160.10475680438213</v>
       </c>
       <c r="P32" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>172.15565247783024</v>
       </c>
       <c r="Q32" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.3992959947720429</v>
       </c>
       <c r="R32" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>11.996479973860215</v>
       </c>
       <c r="S32" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>11.700077997913082</v>
       </c>
       <c r="T32" s="26">
-        <f t="shared" si="38"/>
-        <v>10.700077997913082</v>
-      </c>
-      <c r="U32" s="80">
-        <f t="shared" si="39"/>
-        <v>9.3600623983304665</v>
-      </c>
-      <c r="V32" s="80">
         <f t="shared" si="40"/>
         <v>10.700077997913082</v>
       </c>
+      <c r="U32" s="80">
+        <f t="shared" si="41"/>
+        <v>9.3600623983304665</v>
+      </c>
+      <c r="V32" s="80">
+        <f t="shared" si="42"/>
+        <v>10.700077997913082</v>
+      </c>
       <c r="W32" s="80">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>6.3114353272101953</v>
       </c>
       <c r="X32" s="84">
-        <f>(V$4+V32)/2</f>
+        <f t="shared" si="5"/>
         <v>7.544360334307985</v>
       </c>
       <c r="Y32" s="84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4.7755800916169546</v>
       </c>
       <c r="Z32" s="84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5.7443603343079852</v>
       </c>
       <c r="AA32" s="119">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>11.449307744968904</v>
       </c>
       <c r="AB32" s="119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.9254769411321955</v>
       </c>
       <c r="AC32" s="119">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.186450269518906</v>
       </c>
       <c r="AD32" s="105"/>
@@ -8198,7 +8195,7 @@
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
       <c r="P41" s="18"/>
-      <c r="AB41" s="127">
+      <c r="AB41" s="121">
         <f>AA7*AB40</f>
         <v>16.977210477424194</v>
       </c>
@@ -8600,918 +8597,909 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AF29A6-7E79-4624-A3A9-A8873373DBB8}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G30"/>
+      <selection activeCell="G2" sqref="B2:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="128"/>
+    <col min="1" max="16384" width="8.88671875" style="122"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="122" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="129">
+      <c r="A2" s="123">
         <f>Hilliness_detailedCalc!B4</f>
         <v>0</v>
       </c>
-      <c r="B2" s="130">
-        <f>Hilliness_detailedCalc!X4</f>
-        <v>4.3886426707028869</v>
-      </c>
-      <c r="C2" s="130">
-        <f>Hilliness_detailedCalc!Y4</f>
-        <v>2.7780108105549273</v>
-      </c>
-      <c r="D2" s="130">
-        <f>Hilliness_detailedCalc!Z4</f>
-        <v>2.5886426707028871</v>
-      </c>
-      <c r="E2" s="131">
-        <f>Hilliness_detailedCalc!AA4</f>
-        <v>16</v>
-      </c>
-      <c r="F2" s="131">
-        <f>Hilliness_detailedCalc!AB4</f>
-        <v>5.4857142857142858</v>
-      </c>
-      <c r="G2" s="131">
-        <f>Hilliness_detailedCalc!AC4</f>
-        <v>17.848605238712093</v>
+      <c r="B2" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X4, "0.00")</f>
+        <v>4.39</v>
+      </c>
+      <c r="C2" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y4, "0.00")</f>
+        <v>2.78</v>
+      </c>
+      <c r="D2" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z4, "0.00")</f>
+        <v>2.59</v>
+      </c>
+      <c r="E2" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA4, "0.0")</f>
+        <v>16.0</v>
+      </c>
+      <c r="F2" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB4, "0.0")</f>
+        <v>5.5</v>
+      </c>
+      <c r="G2" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC4, "0.0")</f>
+        <v>17.8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="129">
+      <c r="A3" s="123">
         <f>Hilliness_detailedCalc!B5</f>
         <v>0.25</v>
       </c>
-      <c r="B3" s="130">
-        <f>Hilliness_detailedCalc!X5</f>
-        <v>4.7524696038921448</v>
-      </c>
-      <c r="C3" s="130">
-        <f>Hilliness_detailedCalc!Y5</f>
-        <v>3.0083132592637276</v>
-      </c>
-      <c r="D3" s="130">
-        <f>Hilliness_detailedCalc!Z5</f>
-        <v>2.952469603892145</v>
-      </c>
-      <c r="E3" s="131">
-        <f>Hilliness_detailedCalc!AA5</f>
-        <v>15.14</v>
-      </c>
-      <c r="F3" s="131">
-        <f>Hilliness_detailedCalc!AB5</f>
-        <v>5.1908571428571433</v>
-      </c>
-      <c r="G3" s="131">
-        <f>Hilliness_detailedCalc!AC5</f>
-        <v>17.345505238712096</v>
+      <c r="B3" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X5, "0.00")</f>
+        <v>4.75</v>
+      </c>
+      <c r="C3" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y5, "0.00")</f>
+        <v>3.01</v>
+      </c>
+      <c r="D3" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z5, "0.00")</f>
+        <v>2.95</v>
+      </c>
+      <c r="E3" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA5, "0.0")</f>
+        <v>15.1</v>
+      </c>
+      <c r="F3" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB5, "0.0")</f>
+        <v>5.2</v>
+      </c>
+      <c r="G3" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC5, "0.0")</f>
+        <v>17.3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="129">
+      <c r="A4" s="123">
         <f>Hilliness_detailedCalc!B6</f>
         <v>0.5</v>
       </c>
-      <c r="B4" s="130">
-        <f>Hilliness_detailedCalc!X6</f>
-        <v>4.829036362359064</v>
-      </c>
-      <c r="C4" s="130">
-        <f>Hilliness_detailedCalc!Y6</f>
-        <v>3.0567800173732875</v>
-      </c>
-      <c r="D4" s="130">
-        <f>Hilliness_detailedCalc!Z6</f>
-        <v>3.0290363623590641</v>
-      </c>
-      <c r="E4" s="131">
-        <f>Hilliness_detailedCalc!AA6</f>
-        <v>14.783776336359137</v>
-      </c>
-      <c r="F4" s="131">
-        <f>Hilliness_detailedCalc!AB6</f>
-        <v>5.0687233153231332</v>
-      </c>
-      <c r="G4" s="131">
-        <f>Hilliness_detailedCalc!AC6</f>
-        <v>17.13711439548219</v>
+      <c r="B4" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X6, "0.00")</f>
+        <v>4.83</v>
+      </c>
+      <c r="C4" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y6, "0.00")</f>
+        <v>3.06</v>
+      </c>
+      <c r="D4" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z6, "0.00")</f>
+        <v>3.03</v>
+      </c>
+      <c r="E4" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA6, "0.0")</f>
+        <v>14.8</v>
+      </c>
+      <c r="F4" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB6, "0.0")</f>
+        <v>5.1</v>
+      </c>
+      <c r="G4" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC6, "0.0")</f>
+        <v>17.1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="129">
+      <c r="A5" s="123">
         <f>Hilliness_detailedCalc!B7</f>
         <v>0.75</v>
       </c>
-      <c r="B5" s="130">
-        <f>Hilliness_detailedCalc!X7</f>
-        <v>4.9516741957006598</v>
-      </c>
-      <c r="C5" s="130">
-        <f>Hilliness_detailedCalc!Y7</f>
-        <v>3.1344097658785177</v>
-      </c>
-      <c r="D5" s="130">
-        <f>Hilliness_detailedCalc!Z7</f>
-        <v>3.15167419570066</v>
-      </c>
-      <c r="E5" s="131">
-        <f>Hilliness_detailedCalc!AA7</f>
-        <v>14.510436305490765</v>
-      </c>
-      <c r="F5" s="131">
-        <f>Hilliness_detailedCalc!AB7</f>
-        <v>4.9750067333111199</v>
-      </c>
-      <c r="G5" s="131">
-        <f>Hilliness_detailedCalc!AC7</f>
-        <v>16.977210477424194</v>
+      <c r="B5" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X7, "0.00")</f>
+        <v>4.95</v>
+      </c>
+      <c r="C5" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y7, "0.00")</f>
+        <v>3.13</v>
+      </c>
+      <c r="D5" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z7, "0.00")</f>
+        <v>3.15</v>
+      </c>
+      <c r="E5" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA7, "0.0")</f>
+        <v>14.5</v>
+      </c>
+      <c r="F5" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB7, "0.0")</f>
+        <v>5.0</v>
+      </c>
+      <c r="G5" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC7, "0.0")</f>
+        <v>17.0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="129">
+      <c r="A6" s="123">
         <f>Hilliness_detailedCalc!B8</f>
         <v>1</v>
       </c>
-      <c r="B6" s="130">
-        <f>Hilliness_detailedCalc!X8</f>
-        <v>5.0913488999406056</v>
-      </c>
-      <c r="C6" s="130">
-        <f>Hilliness_detailedCalc!Y8</f>
-        <v>3.2228238536624034</v>
-      </c>
-      <c r="D6" s="130">
-        <f>Hilliness_detailedCalc!Z8</f>
-        <v>3.2913488999406058</v>
-      </c>
-      <c r="E6" s="131">
-        <f>Hilliness_detailedCalc!AA8</f>
-        <v>14.28</v>
-      </c>
-      <c r="F6" s="131">
-        <f>Hilliness_detailedCalc!AB8</f>
-        <v>4.8959999999999999</v>
-      </c>
-      <c r="G6" s="131">
-        <f>Hilliness_detailedCalc!AC8</f>
-        <v>16.842405238712097</v>
+      <c r="B6" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X8, "0.00")</f>
+        <v>5.09</v>
+      </c>
+      <c r="C6" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y8, "0.00")</f>
+        <v>3.22</v>
+      </c>
+      <c r="D6" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z8, "0.00")</f>
+        <v>3.29</v>
+      </c>
+      <c r="E6" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA8, "0.0")</f>
+        <v>14.3</v>
+      </c>
+      <c r="F6" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB8, "0.0")</f>
+        <v>4.9</v>
+      </c>
+      <c r="G6" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC8, "0.0")</f>
+        <v>16.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="129">
+      <c r="A7" s="123">
         <f>Hilliness_detailedCalc!B9</f>
         <v>1.25</v>
       </c>
-      <c r="B7" s="130">
-        <f>Hilliness_detailedCalc!X9</f>
-        <v>5.2376677054041538</v>
-      </c>
-      <c r="C7" s="130">
-        <f>Hilliness_detailedCalc!Y9</f>
-        <v>3.3154436575208295</v>
-      </c>
-      <c r="D7" s="130">
-        <f>Hilliness_detailedCalc!Z9</f>
-        <v>3.437667705404154</v>
-      </c>
-      <c r="E7" s="131">
-        <f>Hilliness_detailedCalc!AA9</f>
-        <v>14.076981539350182</v>
-      </c>
-      <c r="F7" s="131">
-        <f>Hilliness_detailedCalc!AB9</f>
-        <v>4.8263936706343484</v>
-      </c>
-      <c r="G7" s="131">
-        <f>Hilliness_detailedCalc!AC9</f>
-        <v>16.723639439231953</v>
+      <c r="B7" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X9, "0.00")</f>
+        <v>5.24</v>
+      </c>
+      <c r="C7" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y9, "0.00")</f>
+        <v>3.32</v>
+      </c>
+      <c r="D7" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z9, "0.00")</f>
+        <v>3.44</v>
+      </c>
+      <c r="E7" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA9, "0.0")</f>
+        <v>14.1</v>
+      </c>
+      <c r="F7" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB9, "0.0")</f>
+        <v>4.8</v>
+      </c>
+      <c r="G7" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC9, "0.0")</f>
+        <v>16.7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="129">
+      <c r="A8" s="123">
         <f>Hilliness_detailedCalc!B10</f>
         <v>1.5</v>
       </c>
-      <c r="B8" s="130">
-        <f>Hilliness_detailedCalc!X10</f>
-        <v>5.3857194016718832</v>
-      </c>
-      <c r="C8" s="130">
-        <f>Hilliness_detailedCalc!Y10</f>
-        <v>3.4091603812583022</v>
-      </c>
-      <c r="D8" s="130">
-        <f>Hilliness_detailedCalc!Z10</f>
-        <v>3.5857194016718834</v>
-      </c>
-      <c r="E8" s="131">
-        <f>Hilliness_detailedCalc!AA10</f>
-        <v>13.893438821206468</v>
-      </c>
-      <c r="F8" s="131">
-        <f>Hilliness_detailedCalc!AB10</f>
-        <v>4.7634647386993603</v>
-      </c>
-      <c r="G8" s="131">
-        <f>Hilliness_detailedCalc!AC10</f>
-        <v>16.616266949117879</v>
+      <c r="B8" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X10, "0.00")</f>
+        <v>5.39</v>
+      </c>
+      <c r="C8" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y10, "0.00")</f>
+        <v>3.41</v>
+      </c>
+      <c r="D8" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z10, "0.00")</f>
+        <v>3.59</v>
+      </c>
+      <c r="E8" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA10, "0.0")</f>
+        <v>13.9</v>
+      </c>
+      <c r="F8" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB10, "0.0")</f>
+        <v>4.8</v>
+      </c>
+      <c r="G8" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC10, "0.0")</f>
+        <v>16.6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="129">
+      <c r="A9" s="123">
         <f>Hilliness_detailedCalc!B11</f>
         <v>1.75</v>
       </c>
-      <c r="B9" s="130">
-        <f>Hilliness_detailedCalc!X11</f>
-        <v>5.5328310729572028</v>
-      </c>
-      <c r="C9" s="130">
-        <f>Hilliness_detailedCalc!Y11</f>
-        <v>3.5022820691819092</v>
-      </c>
-      <c r="D9" s="130">
-        <f>Hilliness_detailedCalc!Z11</f>
-        <v>3.732831072957203</v>
-      </c>
-      <c r="E9" s="131">
-        <f>Hilliness_detailedCalc!AA11</f>
-        <v>13.724653872484453</v>
-      </c>
-      <c r="F9" s="131">
-        <f>Hilliness_detailedCalc!AB11</f>
-        <v>4.7055956134232408</v>
-      </c>
-      <c r="G9" s="131">
-        <f>Hilliness_detailedCalc!AC11</f>
-        <v>16.517527754115502</v>
+      <c r="B9" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X11, "0.00")</f>
+        <v>5.53</v>
+      </c>
+      <c r="C9" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y11, "0.00")</f>
+        <v>3.50</v>
+      </c>
+      <c r="D9" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z11, "0.00")</f>
+        <v>3.73</v>
+      </c>
+      <c r="E9" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA11, "0.0")</f>
+        <v>13.7</v>
+      </c>
+      <c r="F9" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB11, "0.0")</f>
+        <v>4.7</v>
+      </c>
+      <c r="G9" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC11, "0.0")</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="129">
+      <c r="A10" s="123">
         <f>Hilliness_detailedCalc!B12</f>
         <v>2</v>
       </c>
-      <c r="B10" s="130">
-        <f>Hilliness_detailedCalc!X12</f>
-        <v>5.6774191393760498</v>
-      </c>
-      <c r="C10" s="130">
-        <f>Hilliness_detailedCalc!Y12</f>
-        <v>3.5938063152250397</v>
-      </c>
-      <c r="D10" s="130">
-        <f>Hilliness_detailedCalc!Z12</f>
-        <v>3.87741913937605</v>
-      </c>
-      <c r="E10" s="131">
-        <f>Hilliness_detailedCalc!AA12</f>
-        <v>13.567552672718277</v>
-      </c>
-      <c r="F10" s="131">
-        <f>Hilliness_detailedCalc!AB12</f>
-        <v>4.6517323449319807</v>
-      </c>
-      <c r="G10" s="131">
-        <f>Hilliness_detailedCalc!AC12</f>
-        <v>16.42562355225229</v>
+      <c r="B10" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X12, "0.00")</f>
+        <v>5.68</v>
+      </c>
+      <c r="C10" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y12, "0.00")</f>
+        <v>3.59</v>
+      </c>
+      <c r="D10" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z12, "0.00")</f>
+        <v>3.88</v>
+      </c>
+      <c r="E10" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA12, "0.0")</f>
+        <v>13.6</v>
+      </c>
+      <c r="F10" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB12, "0.0")</f>
+        <v>4.7</v>
+      </c>
+      <c r="G10" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC12, "0.0")</f>
+        <v>16.4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="129">
+      <c r="A11" s="123">
         <f>Hilliness_detailedCalc!B13</f>
         <v>2.25</v>
       </c>
-      <c r="B11" s="130">
-        <f>Hilliness_detailedCalc!X13</f>
-        <v>5.8184928195601504</v>
-      </c>
-      <c r="C11" s="130">
-        <f>Hilliness_detailedCalc!Y13</f>
-        <v>3.6831059547815754</v>
-      </c>
-      <c r="D11" s="130">
-        <f>Hilliness_detailedCalc!Z13</f>
-        <v>4.0184928195601506</v>
-      </c>
-      <c r="E11" s="131">
-        <f>Hilliness_detailedCalc!AA13</f>
-        <v>13.42</v>
-      </c>
-      <c r="F11" s="131">
-        <f>Hilliness_detailedCalc!AB13</f>
-        <v>4.6011428571428574</v>
-      </c>
-      <c r="G11" s="131">
-        <f>Hilliness_detailedCalc!AC13</f>
-        <v>16.339305238712097</v>
+      <c r="B11" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X13, "0.00")</f>
+        <v>5.82</v>
+      </c>
+      <c r="C11" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y13, "0.00")</f>
+        <v>3.68</v>
+      </c>
+      <c r="D11" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z13, "0.00")</f>
+        <v>4.02</v>
+      </c>
+      <c r="E11" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA13, "0.0")</f>
+        <v>13.4</v>
+      </c>
+      <c r="F11" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB13, "0.0")</f>
+        <v>4.6</v>
+      </c>
+      <c r="G11" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC13, "0.0")</f>
+        <v>16.3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="129">
+      <c r="A12" s="123">
         <f>Hilliness_detailedCalc!B14</f>
         <v>2.5</v>
       </c>
-      <c r="B12" s="130">
-        <f>Hilliness_detailedCalc!X14</f>
-        <v>5.9554099692790086</v>
-      </c>
-      <c r="C12" s="130">
-        <f>Hilliness_detailedCalc!Y14</f>
-        <v>3.7697745105536127</v>
-      </c>
-      <c r="D12" s="130">
-        <f>Hilliness_detailedCalc!Z14</f>
-        <v>4.1554099692790087</v>
-      </c>
-      <c r="E12" s="131">
-        <f>Hilliness_detailedCalc!AA14</f>
-        <v>13.280441212255194</v>
-      </c>
-      <c r="F12" s="131">
-        <f>Hilliness_detailedCalc!AB14</f>
-        <v>4.5532941299160665</v>
-      </c>
-      <c r="G12" s="131">
-        <f>Hilliness_detailedCalc!AC14</f>
-        <v>16.257663347881383</v>
+      <c r="B12" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X14, "0.00")</f>
+        <v>5.96</v>
+      </c>
+      <c r="C12" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y14, "0.00")</f>
+        <v>3.77</v>
+      </c>
+      <c r="D12" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z14, "0.00")</f>
+        <v>4.16</v>
+      </c>
+      <c r="E12" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA14, "0.0")</f>
+        <v>13.3</v>
+      </c>
+      <c r="F12" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB14, "0.0")</f>
+        <v>4.6</v>
+      </c>
+      <c r="G12" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC14, "0.0")</f>
+        <v>16.3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="129">
+      <c r="A13" s="123">
         <f>Hilliness_detailedCalc!B15</f>
         <v>2.75</v>
       </c>
-      <c r="B13" s="130">
-        <f>Hilliness_detailedCalc!X15</f>
-        <v>6.0877455106779976</v>
-      </c>
-      <c r="C13" s="130">
-        <f>Hilliness_detailedCalc!Y15</f>
-        <v>3.8535429082591723</v>
-      </c>
-      <c r="D13" s="130">
-        <f>Hilliness_detailedCalc!Z15</f>
-        <v>4.2877455106779978</v>
-      </c>
-      <c r="E13" s="131">
-        <f>Hilliness_detailedCalc!AA15</f>
-        <v>13.147702680294357</v>
-      </c>
-      <c r="F13" s="131">
-        <f>Hilliness_detailedCalc!AB15</f>
-        <v>4.5077837761009221</v>
-      </c>
-      <c r="G13" s="131">
-        <f>Hilliness_detailedCalc!AC15</f>
-        <v>16.180011306684296</v>
+      <c r="B13" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X15, "0.00")</f>
+        <v>6.09</v>
+      </c>
+      <c r="C13" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y15, "0.00")</f>
+        <v>3.85</v>
+      </c>
+      <c r="D13" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z15, "0.00")</f>
+        <v>4.29</v>
+      </c>
+      <c r="E13" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA15, "0.0")</f>
+        <v>13.1</v>
+      </c>
+      <c r="F13" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB15, "0.0")</f>
+        <v>4.5</v>
+      </c>
+      <c r="G13" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC15, "0.0")</f>
+        <v>16.2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="129">
+      <c r="A14" s="123">
         <f>Hilliness_detailedCalc!B16</f>
         <v>3</v>
       </c>
-      <c r="B14" s="130">
-        <f>Hilliness_detailedCalc!X16</f>
-        <v>6.2152155023606834</v>
-      </c>
-      <c r="C14" s="130">
-        <f>Hilliness_detailedCalc!Y16</f>
-        <v>3.9342314129943126</v>
-      </c>
-      <c r="D14" s="130">
-        <f>Hilliness_detailedCalc!Z16</f>
-        <v>4.4152155023606836</v>
-      </c>
-      <c r="E14" s="131">
-        <f>Hilliness_detailedCalc!AA16</f>
-        <v>13.020872610981531</v>
-      </c>
-      <c r="F14" s="131">
-        <f>Hilliness_detailedCalc!AB16</f>
-        <v>4.4642991809079531</v>
-      </c>
-      <c r="G14" s="131">
-        <f>Hilliness_detailedCalc!AC16</f>
-        <v>16.105815716136291</v>
+      <c r="B14" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X16, "0.00")</f>
+        <v>6.22</v>
+      </c>
+      <c r="C14" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y16, "0.00")</f>
+        <v>3.93</v>
+      </c>
+      <c r="D14" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z16, "0.00")</f>
+        <v>4.42</v>
+      </c>
+      <c r="E14" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA16, "0.0")</f>
+        <v>13.0</v>
+      </c>
+      <c r="F14" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB16, "0.0")</f>
+        <v>4.5</v>
+      </c>
+      <c r="G14" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC16, "0.0")</f>
+        <v>16.1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="129">
+      <c r="A15" s="123">
         <f>Hilliness_detailedCalc!B17</f>
         <v>3.25</v>
       </c>
-      <c r="B15" s="130">
-        <f>Hilliness_detailedCalc!X17</f>
-        <v>6.3376309207870847</v>
-      </c>
-      <c r="C15" s="130">
-        <f>Hilliness_detailedCalc!Y17</f>
-        <v>4.0117203728582247</v>
-      </c>
-      <c r="D15" s="130">
-        <f>Hilliness_detailedCalc!Z17</f>
-        <v>4.5376309207870849</v>
-      </c>
-      <c r="E15" s="131">
-        <f>Hilliness_detailedCalc!AA17</f>
-        <v>12.89922590310097</v>
-      </c>
-      <c r="F15" s="131">
-        <f>Hilliness_detailedCalc!AB17</f>
-        <v>4.4225917382060471</v>
-      </c>
-      <c r="G15" s="131">
-        <f>Hilliness_detailedCalc!AC17</f>
-        <v>16.034652392026164</v>
+      <c r="B15" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X17, "0.00")</f>
+        <v>6.34</v>
+      </c>
+      <c r="C15" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y17, "0.00")</f>
+        <v>4.01</v>
+      </c>
+      <c r="D15" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z17, "0.00")</f>
+        <v>4.54</v>
+      </c>
+      <c r="E15" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA17, "0.0")</f>
+        <v>12.9</v>
+      </c>
+      <c r="F15" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB17, "0.0")</f>
+        <v>4.4</v>
+      </c>
+      <c r="G15" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC17, "0.0")</f>
+        <v>16.0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="129">
+      <c r="A16" s="123">
         <f>Hilliness_detailedCalc!B18</f>
         <v>3.5</v>
       </c>
-      <c r="B16" s="130">
-        <f>Hilliness_detailedCalc!X18</f>
-        <v>6.4548683023252362</v>
-      </c>
-      <c r="C16" s="130">
-        <f>Hilliness_detailedCalc!Y18</f>
-        <v>4.0859316353718746</v>
-      </c>
-      <c r="D16" s="130">
-        <f>Hilliness_detailedCalc!Z18</f>
-        <v>4.6548683023252364</v>
-      </c>
-      <c r="E16" s="131">
-        <f>Hilliness_detailedCalc!AA18</f>
-        <v>12.782174647374411</v>
-      </c>
-      <c r="F16" s="131">
-        <f>Hilliness_detailedCalc!AB18</f>
-        <v>4.3824598790997982</v>
-      </c>
-      <c r="G16" s="131">
-        <f>Hilliness_detailedCalc!AC18</f>
-        <v>15.966177407426127</v>
+      <c r="B16" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X18, "0.00")</f>
+        <v>6.45</v>
+      </c>
+      <c r="C16" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y18, "0.00")</f>
+        <v>4.09</v>
+      </c>
+      <c r="D16" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z18, "0.00")</f>
+        <v>4.65</v>
+      </c>
+      <c r="E16" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA18, "0.0")</f>
+        <v>12.8</v>
+      </c>
+      <c r="F16" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB18, "0.0")</f>
+        <v>4.4</v>
+      </c>
+      <c r="G16" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC18, "0.0")</f>
+        <v>16.0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="129">
+      <c r="A17" s="123">
         <f>Hilliness_detailedCalc!B19</f>
         <v>3.75</v>
       </c>
-      <c r="B17" s="130">
-        <f>Hilliness_detailedCalc!X19</f>
-        <v>6.5668504352274866</v>
-      </c>
-      <c r="C17" s="130">
-        <f>Hilliness_detailedCalc!Y19</f>
-        <v>4.1568163254989994</v>
-      </c>
-      <c r="D17" s="130">
-        <f>Hilliness_detailedCalc!Z19</f>
-        <v>4.7668504352274867</v>
-      </c>
-      <c r="E17" s="131">
-        <f>Hilliness_detailedCalc!AA19</f>
-        <v>12.669234322261621</v>
-      </c>
-      <c r="F17" s="131">
-        <f>Hilliness_detailedCalc!AB19</f>
-        <v>4.3437374819182706</v>
-      </c>
-      <c r="G17" s="131">
-        <f>Hilliness_detailedCalc!AC19</f>
-        <v>15.900107317235145</v>
+      <c r="B17" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X19, "0.00")</f>
+        <v>6.57</v>
+      </c>
+      <c r="C17" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y19, "0.00")</f>
+        <v>4.16</v>
+      </c>
+      <c r="D17" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z19, "0.00")</f>
+        <v>4.77</v>
+      </c>
+      <c r="E17" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA19, "0.0")</f>
+        <v>12.7</v>
+      </c>
+      <c r="F17" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB19, "0.0")</f>
+        <v>4.3</v>
+      </c>
+      <c r="G17" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC19, "0.0")</f>
+        <v>15.9</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="129">
+      <c r="A18" s="123">
         <f>Hilliness_detailedCalc!B20</f>
         <v>4</v>
       </c>
-      <c r="B18" s="130">
-        <f>Hilliness_detailedCalc!X20</f>
-        <v>6.6735332896247943</v>
-      </c>
-      <c r="C18" s="130">
-        <f>Hilliness_detailedCalc!Y20</f>
-        <v>4.2243465723324949</v>
-      </c>
-      <c r="D18" s="130">
-        <f>Hilliness_detailedCalc!Z20</f>
-        <v>4.8735332896247945</v>
-      </c>
-      <c r="E18" s="131">
-        <f>Hilliness_detailedCalc!AA20</f>
-        <v>12.56</v>
-      </c>
-      <c r="F18" s="131">
-        <f>Hilliness_detailedCalc!AB20</f>
-        <v>4.3062857142857149</v>
-      </c>
-      <c r="G18" s="131">
-        <f>Hilliness_detailedCalc!AC20</f>
-        <v>15.836205238712099</v>
+      <c r="B18" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X20, "0.00")</f>
+        <v>6.67</v>
+      </c>
+      <c r="C18" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y20, "0.00")</f>
+        <v>4.22</v>
+      </c>
+      <c r="D18" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z20, "0.00")</f>
+        <v>4.87</v>
+      </c>
+      <c r="E18" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA20, "0.0")</f>
+        <v>12.6</v>
+      </c>
+      <c r="F18" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB20, "0.0")</f>
+        <v>4.3</v>
+      </c>
+      <c r="G18" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC20, "0.0")</f>
+        <v>15.8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="129">
+      <c r="A19" s="123">
         <f>Hilliness_detailedCalc!B21</f>
         <v>4.25</v>
       </c>
-      <c r="B19" s="130">
-        <f>Hilliness_detailedCalc!X21</f>
-        <v>6.7748969532955154</v>
-      </c>
-      <c r="C19" s="130">
-        <f>Hilliness_detailedCalc!Y21</f>
-        <v>4.2885097714360612</v>
-      </c>
-      <c r="D19" s="130">
-        <f>Hilliness_detailedCalc!Z21</f>
-        <v>4.9748969532955156</v>
-      </c>
-      <c r="E19" s="131">
-        <f>Hilliness_detailedCalc!AA21</f>
-        <v>12.454129161968812</v>
-      </c>
-      <c r="F19" s="131">
-        <f>Hilliness_detailedCalc!AB21</f>
-        <v>4.2699871412464496</v>
-      </c>
-      <c r="G19" s="131">
-        <f>Hilliness_detailedCalc!AC21</f>
-        <v>15.774270798463851</v>
+      <c r="B19" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X21, "0.00")</f>
+        <v>6.77</v>
+      </c>
+      <c r="C19" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y21, "0.00")</f>
+        <v>4.29</v>
+      </c>
+      <c r="D19" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z21, "0.00")</f>
+        <v>4.97</v>
+      </c>
+      <c r="E19" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA21, "0.0")</f>
+        <v>12.5</v>
+      </c>
+      <c r="F19" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB21, "0.0")</f>
+        <v>4.3</v>
+      </c>
+      <c r="G19" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC21, "0.0")</f>
+        <v>15.8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="129">
+      <c r="A20" s="123">
         <f>Hilliness_detailedCalc!B22</f>
         <v>4.5</v>
       </c>
-      <c r="B20" s="130">
-        <f>Hilliness_detailedCalc!X22</f>
-        <v>6.8709392151442739</v>
-      </c>
-      <c r="C20" s="130">
-        <f>Hilliness_detailedCalc!Y22</f>
-        <v>4.3493045231863254</v>
-      </c>
-      <c r="D20" s="130">
-        <f>Hilliness_detailedCalc!Z22</f>
-        <v>5.070939215144274</v>
-      </c>
-      <c r="E20" s="131">
-        <f>Hilliness_detailedCalc!AA22</f>
-        <v>12.351329009077416</v>
-      </c>
-      <c r="F20" s="131">
-        <f>Hilliness_detailedCalc!AB22</f>
-        <v>4.2347413745408282</v>
-      </c>
-      <c r="G20" s="131">
-        <f>Hilliness_detailedCalc!AC22</f>
-        <v>15.714132709022385</v>
+      <c r="B20" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X22, "0.00")</f>
+        <v>6.87</v>
+      </c>
+      <c r="C20" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y22, "0.00")</f>
+        <v>4.35</v>
+      </c>
+      <c r="D20" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z22, "0.00")</f>
+        <v>5.07</v>
+      </c>
+      <c r="E20" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA22, "0.0")</f>
+        <v>12.4</v>
+      </c>
+      <c r="F20" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB22, "0.0")</f>
+        <v>4.2</v>
+      </c>
+      <c r="G20" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC22, "0.0")</f>
+        <v>15.7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="129">
+      <c r="A21" s="123">
         <f>Hilliness_detailedCalc!B23</f>
         <v>4.75</v>
       </c>
-      <c r="B21" s="130">
-        <f>Hilliness_detailedCalc!X23</f>
-        <v>6.9616709427430017</v>
-      </c>
-      <c r="C21" s="130">
-        <f>Hilliness_detailedCalc!Y23</f>
-        <v>4.4067377067563198</v>
-      </c>
-      <c r="D21" s="130">
-        <f>Hilliness_detailedCalc!Z23</f>
-        <v>5.1616709427430019</v>
-      </c>
-      <c r="E21" s="131">
-        <f>Hilliness_detailedCalc!AA23</f>
-        <v>12.251346908555021</v>
-      </c>
-      <c r="F21" s="131">
-        <f>Hilliness_detailedCalc!AB23</f>
-        <v>4.2004617972188649</v>
-      </c>
-      <c r="G21" s="131">
-        <f>Hilliness_detailedCalc!AC23</f>
-        <v>15.655643180216785</v>
+      <c r="B21" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X23, "0.00")</f>
+        <v>6.96</v>
+      </c>
+      <c r="C21" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y23, "0.00")</f>
+        <v>4.41</v>
+      </c>
+      <c r="D21" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z23, "0.00")</f>
+        <v>5.16</v>
+      </c>
+      <c r="E21" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA23, "0.0")</f>
+        <v>12.3</v>
+      </c>
+      <c r="F21" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB23, "0.0")</f>
+        <v>4.2</v>
+      </c>
+      <c r="G21" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC23, "0.0")</f>
+        <v>15.7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="129">
+      <c r="A22" s="123">
         <f>Hilliness_detailedCalc!B24</f>
         <v>5</v>
       </c>
-      <c r="B22" s="130">
-        <f>Hilliness_detailedCalc!X24</f>
-        <v>7.0471127019811313</v>
-      </c>
-      <c r="C22" s="130">
-        <f>Hilliness_detailedCalc!Y24</f>
-        <v>4.4608223403540563</v>
-      </c>
-      <c r="D22" s="130">
-        <f>Hilliness_detailedCalc!Z24</f>
-        <v>5.2471127019811314</v>
-      </c>
-      <c r="E22" s="131">
-        <f>Hilliness_detailedCalc!AA24</f>
-        <v>12.153963078700361</v>
-      </c>
-      <c r="F22" s="131">
-        <f>Hilliness_detailedCalc!AB24</f>
-        <v>4.1670730555544093</v>
-      </c>
-      <c r="G22" s="131">
-        <f>Hilliness_detailedCalc!AC24</f>
-        <v>15.598673639751807</v>
+      <c r="B22" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X24, "0.00")</f>
+        <v>7.05</v>
+      </c>
+      <c r="C22" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y24, "0.00")</f>
+        <v>4.46</v>
+      </c>
+      <c r="D22" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z24, "0.00")</f>
+        <v>5.25</v>
+      </c>
+      <c r="E22" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA24, "0.0")</f>
+        <v>12.2</v>
+      </c>
+      <c r="F22" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB24, "0.0")</f>
+        <v>4.2</v>
+      </c>
+      <c r="G22" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC24, "0.0")</f>
+        <v>15.6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="129">
+      <c r="A23" s="123">
         <f>Hilliness_detailedCalc!B25</f>
         <v>5.25</v>
       </c>
-      <c r="B23" s="130">
-        <f>Hilliness_detailedCalc!X25</f>
-        <v>7.127292253031543</v>
-      </c>
-      <c r="C23" s="130">
-        <f>Hilliness_detailedCalc!Y25</f>
-        <v>4.5115759961689665</v>
-      </c>
-      <c r="D23" s="130">
-        <f>Hilliness_detailedCalc!Z25</f>
-        <v>5.3272922530315432</v>
-      </c>
-      <c r="E23" s="131">
-        <f>Hilliness_detailedCalc!AA25</f>
-        <v>12.058984902337977</v>
-      </c>
-      <c r="F23" s="131">
-        <f>Hilliness_detailedCalc!AB25</f>
-        <v>4.1345091093730204</v>
-      </c>
-      <c r="G23" s="131">
-        <f>Hilliness_detailedCalc!AC25</f>
-        <v>15.543111406579813</v>
+      <c r="B23" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X25, "0.00")</f>
+        <v>7.13</v>
+      </c>
+      <c r="C23" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y25, "0.00")</f>
+        <v>4.51</v>
+      </c>
+      <c r="D23" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z25, "0.00")</f>
+        <v>5.33</v>
+      </c>
+      <c r="E23" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA25, "0.0")</f>
+        <v>12.1</v>
+      </c>
+      <c r="F23" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB25, "0.0")</f>
+        <v>4.1</v>
+      </c>
+      <c r="G23" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC25, "0.0")</f>
+        <v>15.5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="129">
+      <c r="A24" s="123">
         <f>Hilliness_detailedCalc!B26</f>
         <v>5.5</v>
       </c>
-      <c r="B24" s="130">
-        <f>Hilliness_detailedCalc!X26</f>
-        <v>7.2022426748909503</v>
-      </c>
-      <c r="C24" s="130">
-        <f>Hilliness_detailedCalc!Y26</f>
-        <v>4.5590196132059715</v>
-      </c>
-      <c r="D24" s="130">
-        <f>Hilliness_detailedCalc!Z26</f>
-        <v>5.4022426748909504</v>
-      </c>
-      <c r="E24" s="131">
-        <f>Hilliness_detailedCalc!AA26</f>
-        <v>11.966242446551851</v>
-      </c>
-      <c r="F24" s="131">
-        <f>Hilliness_detailedCalc!AB26</f>
-        <v>4.1027116959606342</v>
-      </c>
-      <c r="G24" s="131">
-        <f>Hilliness_detailedCalc!AC26</f>
-        <v>15.488857069944928</v>
+      <c r="B24" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X26, "0.00")</f>
+        <v>7.20</v>
+      </c>
+      <c r="C24" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y26, "0.00")</f>
+        <v>4.56</v>
+      </c>
+      <c r="D24" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z26, "0.00")</f>
+        <v>5.40</v>
+      </c>
+      <c r="E24" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA26, "0.0")</f>
+        <v>12.0</v>
+      </c>
+      <c r="F24" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB26, "0.0")</f>
+        <v>4.1</v>
+      </c>
+      <c r="G24" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC26, "0.0")</f>
+        <v>15.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="129">
+      <c r="A25" s="123">
         <f>Hilliness_detailedCalc!B27</f>
         <v>5.75</v>
       </c>
-      <c r="B25" s="130">
-        <f>Hilliness_detailedCalc!X27</f>
-        <v>7.2720009474456049</v>
-      </c>
-      <c r="C25" s="130">
-        <f>Hilliness_detailedCalc!Y27</f>
-        <v>4.603176599733068</v>
-      </c>
-      <c r="D25" s="130">
-        <f>Hilliness_detailedCalc!Z27</f>
-        <v>5.4720009474456051</v>
-      </c>
-      <c r="E25" s="131">
-        <f>Hilliness_detailedCalc!AA27</f>
-        <v>11.875584889951062</v>
-      </c>
-      <c r="F25" s="131">
-        <f>Hilliness_detailedCalc!AB27</f>
-        <v>4.0716291051260782</v>
-      </c>
-      <c r="G25" s="131">
-        <f>Hilliness_detailedCalc!AC27</f>
-        <v>15.435822399333466</v>
+      <c r="B25" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X27, "0.00")</f>
+        <v>7.27</v>
+      </c>
+      <c r="C25" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y27, "0.00")</f>
+        <v>4.60</v>
+      </c>
+      <c r="D25" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z27, "0.00")</f>
+        <v>5.47</v>
+      </c>
+      <c r="E25" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA27, "0.0")</f>
+        <v>11.9</v>
+      </c>
+      <c r="F25" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB27, "0.0")</f>
+        <v>4.1</v>
+      </c>
+      <c r="G25" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC27, "0.0")</f>
+        <v>15.4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="129">
+      <c r="A26" s="123">
         <f>Hilliness_detailedCalc!B28</f>
         <v>6</v>
       </c>
-      <c r="B26" s="130">
-        <f>Hilliness_detailedCalc!X28</f>
-        <v>7.3366068709194163</v>
-      </c>
-      <c r="C26" s="130">
-        <f>Hilliness_detailedCalc!Y28</f>
-        <v>4.6440721492919907</v>
-      </c>
-      <c r="D26" s="130">
-        <f>Hilliness_detailedCalc!Z28</f>
-        <v>5.5366068709194165</v>
-      </c>
-      <c r="E26" s="131">
-        <f>Hilliness_detailedCalc!AA28</f>
-        <v>11.786877642412934</v>
-      </c>
-      <c r="F26" s="131">
-        <f>Hilliness_detailedCalc!AB28</f>
-        <v>4.0412151916844348</v>
-      </c>
-      <c r="G26" s="131">
-        <f>Hilliness_detailedCalc!AC28</f>
-        <v>15.383928659523663</v>
+      <c r="B26" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X28, "0.00")</f>
+        <v>7.34</v>
+      </c>
+      <c r="C26" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y28, "0.00")</f>
+        <v>4.64</v>
+      </c>
+      <c r="D26" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z28, "0.00")</f>
+        <v>5.54</v>
+      </c>
+      <c r="E26" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA28, "0.0")</f>
+        <v>11.8</v>
+      </c>
+      <c r="F26" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB28, "0.0")</f>
+        <v>4.0</v>
+      </c>
+      <c r="G26" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC28, "0.0")</f>
+        <v>15.4</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="129">
+      <c r="A27" s="123">
         <f>Hilliness_detailedCalc!B29</f>
         <v>6.25</v>
       </c>
-      <c r="B27" s="130">
-        <f>Hilliness_detailedCalc!X29</f>
-        <v>7.3961022370085576</v>
-      </c>
-      <c r="C27" s="130">
-        <f>Hilliness_detailedCalc!Y29</f>
-        <v>4.6817327160264171</v>
-      </c>
-      <c r="D27" s="130">
-        <f>Hilliness_detailedCalc!Z29</f>
-        <v>5.5961022370085578</v>
-      </c>
-      <c r="E27" s="131">
-        <f>Hilliness_detailedCalc!AA29</f>
+      <c r="B27" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X29, "0.00")</f>
+        <v>7.40</v>
+      </c>
+      <c r="C27" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y29, "0.00")</f>
+        <v>4.68</v>
+      </c>
+      <c r="D27" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z29, "0.00")</f>
+        <v>5.60</v>
+      </c>
+      <c r="E27" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA29, "0.0")</f>
         <v>11.7</v>
       </c>
-      <c r="F27" s="131">
-        <f>Hilliness_detailedCalc!AB29</f>
-        <v>4.0114285714285716</v>
-      </c>
-      <c r="G27" s="131">
-        <f>Hilliness_detailedCalc!AC29</f>
-        <v>15.333105238712097</v>
+      <c r="F27" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB29, "0.0")</f>
+        <v>4.0</v>
+      </c>
+      <c r="G27" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC29, "0.0")</f>
+        <v>15.3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="129">
+      <c r="A28" s="123">
         <f>Hilliness_detailedCalc!B30</f>
         <v>6.5</v>
       </c>
-      <c r="B28" s="130">
-        <f>Hilliness_detailedCalc!X30</f>
-        <v>7.4505301897240468</v>
-      </c>
-      <c r="C28" s="130">
-        <f>Hilliness_detailedCalc!Y30</f>
-        <v>4.7161856100953221</v>
-      </c>
-      <c r="D28" s="130">
-        <f>Hilliness_detailedCalc!Z30</f>
-        <v>5.650530189724047</v>
-      </c>
-      <c r="E28" s="131">
-        <f>Hilliness_detailedCalc!AA30</f>
-        <v>11.614843218310206</v>
-      </c>
-      <c r="F28" s="131">
-        <f>Hilliness_detailedCalc!AB30</f>
-        <v>3.982231960563499</v>
-      </c>
-      <c r="G28" s="131">
-        <f>Hilliness_detailedCalc!AC30</f>
-        <v>15.283288521423566</v>
+      <c r="B28" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X30, "0.00")</f>
+        <v>7.45</v>
+      </c>
+      <c r="C28" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y30, "0.00")</f>
+        <v>4.72</v>
+      </c>
+      <c r="D28" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z30, "0.00")</f>
+        <v>5.65</v>
+      </c>
+      <c r="E28" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA30, "0.0")</f>
+        <v>11.6</v>
+      </c>
+      <c r="F28" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB30, "0.0")</f>
+        <v>4.0</v>
+      </c>
+      <c r="G28" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC30, "0.0")</f>
+        <v>15.3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="129">
+      <c r="A29" s="123">
         <f>Hilliness_detailedCalc!B31</f>
         <v>6.75</v>
       </c>
-      <c r="B29" s="130">
-        <f>Hilliness_detailedCalc!X31</f>
-        <v>7.4999347305517858</v>
-      </c>
-      <c r="C29" s="130">
-        <f>Hilliness_detailedCalc!Y31</f>
-        <v>4.7474586844392803</v>
-      </c>
-      <c r="D29" s="130">
-        <f>Hilliness_detailedCalc!Z31</f>
-        <v>5.699934730551786</v>
-      </c>
-      <c r="E29" s="131">
-        <f>Hilliness_detailedCalc!AA31</f>
-        <v>11.531308916472296</v>
-      </c>
-      <c r="F29" s="131">
-        <f>Hilliness_detailedCalc!AB31</f>
-        <v>3.9535916285047872</v>
-      </c>
-      <c r="G29" s="131">
-        <f>Hilliness_detailedCalc!AC31</f>
-        <v>15.234420954848391</v>
+      <c r="B29" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X31, "0.00")</f>
+        <v>7.50</v>
+      </c>
+      <c r="C29" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y31, "0.00")</f>
+        <v>4.75</v>
+      </c>
+      <c r="D29" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z31, "0.00")</f>
+        <v>5.70</v>
+      </c>
+      <c r="E29" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA31, "0.0")</f>
+        <v>11.5</v>
+      </c>
+      <c r="F29" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB31, "0.0")</f>
+        <v>4.0</v>
+      </c>
+      <c r="G29" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC31, "0.0")</f>
+        <v>15.2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="129">
+      <c r="A30" s="123">
         <f>Hilliness_detailedCalc!B32</f>
         <v>7</v>
       </c>
-      <c r="B30" s="130">
-        <f>Hilliness_detailedCalc!X32</f>
-        <v>7.544360334307985</v>
-      </c>
-      <c r="C30" s="130">
-        <f>Hilliness_detailedCalc!Y32</f>
-        <v>4.7755800916169546</v>
-      </c>
-      <c r="D30" s="130">
-        <f>Hilliness_detailedCalc!Z32</f>
-        <v>5.7443603343079852</v>
-      </c>
-      <c r="E30" s="131">
-        <f>Hilliness_detailedCalc!AA32</f>
-        <v>11.449307744968904</v>
-      </c>
-      <c r="F30" s="131">
-        <f>Hilliness_detailedCalc!AB32</f>
-        <v>3.9254769411321955</v>
-      </c>
-      <c r="G30" s="131">
-        <f>Hilliness_detailedCalc!AC32</f>
-        <v>15.186450269518906</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="129"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="129"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="129"/>
+      <c r="B30" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!X32, "0.00")</f>
+        <v>7.54</v>
+      </c>
+      <c r="C30" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Y32, "0.00")</f>
+        <v>4.78</v>
+      </c>
+      <c r="D30" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!Z32, "0.00")</f>
+        <v>5.74</v>
+      </c>
+      <c r="E30" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AA32, "0.0")</f>
+        <v>11.4</v>
+      </c>
+      <c r="F30" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AB32, "0.0")</f>
+        <v>3.9</v>
+      </c>
+      <c r="G30" s="124" t="str">
+        <f>TEXT(Hilliness_detailedCalc!AC32, "0.0")</f>
+        <v>15.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
